--- a/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1122,7 +1122,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26692" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26692" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1126,7 +1126,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}rac-1:Shall use either NMDP Race extension or us-core-race {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-race' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')}eth-1:Shall use either NMDP ethnicity extension or us-core-ethnicity {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-ethnicity' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1181,10 +1181,6 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -16779,13 +16775,13 @@
         <v>74</v>
       </c>
       <c r="AI135" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AJ135" t="s" s="2">
+      <c r="AK135" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>74</v>
@@ -19554,7 +19550,7 @@
         <v>256</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>74</v>
@@ -19579,10 +19575,10 @@
         <v>238</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -20238,13 +20234,13 @@
         <v>74</v>
       </c>
       <c r="J167" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K167" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K167" t="s" s="2">
+      <c r="L167" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20307,13 +20303,13 @@
         <v>74</v>
       </c>
       <c r="AI167" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AJ167" t="s" s="2">
+      <c r="AK167" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>74</v>
@@ -23082,7 +23078,7 @@
         <v>256</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s" s="2">
         <v>74</v>
@@ -23107,10 +23103,10 @@
         <v>238</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -23747,7 +23743,7 @@
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -23766,16 +23762,16 @@
         <v>74</v>
       </c>
       <c r="J199" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K199" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K199" t="s" s="2">
+      <c r="L199" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
@@ -23837,13 +23833,13 @@
         <v>74</v>
       </c>
       <c r="AI199" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ199" t="s" s="2">
+      <c r="AK199" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK199" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>74</v>
@@ -26612,7 +26608,7 @@
         <v>256</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C225" t="s" s="2">
         <v>74</v>
@@ -26637,10 +26633,10 @@
         <v>238</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -27277,7 +27273,7 @@
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -27296,16 +27292,16 @@
         <v>74</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L231" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L231" t="s" s="2">
+      <c r="M231" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
@@ -27367,13 +27363,13 @@
         <v>74</v>
       </c>
       <c r="AI231" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ231" t="s" s="2">
+      <c r="AK231" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK231" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>74</v>
@@ -30142,7 +30138,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C257" t="s" s="2">
         <v>74</v>
@@ -30167,10 +30163,10 @@
         <v>238</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -30807,7 +30803,7 @@
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -30826,16 +30822,16 @@
         <v>74</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="M263" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" t="s" s="2">
@@ -30897,13 +30893,13 @@
         <v>74</v>
       </c>
       <c r="AI263" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ263" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ263" t="s" s="2">
+      <c r="AK263" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK263" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL263" t="s" s="2">
         <v>74</v>
@@ -33672,7 +33668,7 @@
         <v>256</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C289" t="s" s="2">
         <v>74</v>
@@ -33697,10 +33693,10 @@
         <v>238</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -34337,7 +34333,7 @@
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -34356,16 +34352,16 @@
         <v>74</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L295" t="s" s="2">
+      <c r="M295" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M295" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" t="s" s="2">
@@ -34427,13 +34423,13 @@
         <v>74</v>
       </c>
       <c r="AI295" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ295" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ295" t="s" s="2">
+      <c r="AK295" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK295" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL295" t="s" s="2">
         <v>74</v>
@@ -37202,7 +37198,7 @@
         <v>256</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C321" t="s" s="2">
         <v>74</v>
@@ -37227,10 +37223,10 @@
         <v>238</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -37867,7 +37863,7 @@
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -37886,16 +37882,16 @@
         <v>74</v>
       </c>
       <c r="J327" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K327" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K327" t="s" s="2">
+      <c r="L327" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L327" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="M327" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" t="s" s="2">
@@ -37957,13 +37953,13 @@
         <v>74</v>
       </c>
       <c r="AI327" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ327" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK327" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK327" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL327" t="s" s="2">
         <v>74</v>
@@ -40732,7 +40728,7 @@
         <v>256</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C353" t="s" s="2">
         <v>74</v>
@@ -40757,10 +40753,10 @@
         <v>238</v>
       </c>
       <c r="K353" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L353" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L353" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -41397,7 +41393,7 @@
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -41416,16 +41412,16 @@
         <v>74</v>
       </c>
       <c r="J359" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K359" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K359" t="s" s="2">
+      <c r="L359" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L359" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="M359" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" t="s" s="2">
@@ -41487,13 +41483,13 @@
         <v>74</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ359" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK359" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK359" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL359" t="s" s="2">
         <v>74</v>
@@ -44262,7 +44258,7 @@
         <v>256</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C385" t="s" s="2">
         <v>74</v>
@@ -44287,10 +44283,10 @@
         <v>238</v>
       </c>
       <c r="K385" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L385" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L385" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
@@ -44946,13 +44942,13 @@
         <v>74</v>
       </c>
       <c r="J391" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K391" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K391" t="s" s="2">
+      <c r="L391" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L391" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
@@ -45015,13 +45011,13 @@
         <v>74</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL391" t="s" s="2">
         <v>74</v>
@@ -47790,7 +47786,7 @@
         <v>256</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C417" t="s" s="2">
         <v>74</v>
@@ -47815,10 +47811,10 @@
         <v>238</v>
       </c>
       <c r="K417" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L417" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L417" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
@@ -48455,7 +48451,7 @@
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -48474,16 +48470,16 @@
         <v>74</v>
       </c>
       <c r="J423" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K423" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="K423" t="s" s="2">
+      <c r="L423" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L423" t="s" s="2">
+      <c r="M423" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M423" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N423" s="2"/>
       <c r="O423" t="s" s="2">
@@ -48545,13 +48541,13 @@
         <v>74</v>
       </c>
       <c r="AI423" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ423" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ423" t="s" s="2">
+      <c r="AK423" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK423" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL423" t="s" s="2">
         <v>74</v>
@@ -51320,7 +51316,7 @@
         <v>256</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>74</v>
@@ -51345,10 +51341,10 @@
         <v>238</v>
       </c>
       <c r="K449" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L449" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L449" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="M449" s="2"/>
       <c r="N449" s="2"/>
@@ -51985,7 +51981,7 @@
       </c>
       <c r="B455" s="2"/>
       <c r="C455" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -52004,16 +52000,16 @@
         <v>74</v>
       </c>
       <c r="J455" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K455" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L455" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L455" t="s" s="2">
+      <c r="M455" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M455" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N455" s="2"/>
       <c r="O455" t="s" s="2">
@@ -52075,13 +52071,13 @@
         <v>74</v>
       </c>
       <c r="AI455" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ455" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ455" t="s" s="2">
+      <c r="AK455" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK455" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL455" t="s" s="2">
         <v>74</v>
@@ -54850,7 +54846,7 @@
         <v>256</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C481" t="s" s="2">
         <v>74</v>
@@ -54875,10 +54871,10 @@
         <v>238</v>
       </c>
       <c r="K481" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L481" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L481" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M481" s="2"/>
       <c r="N481" s="2"/>
@@ -55515,7 +55511,7 @@
       </c>
       <c r="B487" s="2"/>
       <c r="C487" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -55534,16 +55530,16 @@
         <v>74</v>
       </c>
       <c r="J487" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K487" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L487" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L487" t="s" s="2">
+      <c r="M487" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M487" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N487" s="2"/>
       <c r="O487" t="s" s="2">
@@ -55605,13 +55601,13 @@
         <v>74</v>
       </c>
       <c r="AI487" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ487" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ487" t="s" s="2">
+      <c r="AK487" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK487" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL487" t="s" s="2">
         <v>74</v>
@@ -58380,7 +58376,7 @@
         <v>256</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C513" t="s" s="2">
         <v>74</v>
@@ -58405,10 +58401,10 @@
         <v>238</v>
       </c>
       <c r="K513" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L513" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L513" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="M513" s="2"/>
       <c r="N513" s="2"/>
@@ -59045,7 +59041,7 @@
       </c>
       <c r="B519" s="2"/>
       <c r="C519" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -59064,16 +59060,16 @@
         <v>74</v>
       </c>
       <c r="J519" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K519" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L519" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L519" t="s" s="2">
+      <c r="M519" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M519" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N519" s="2"/>
       <c r="O519" t="s" s="2">
@@ -59135,13 +59131,13 @@
         <v>74</v>
       </c>
       <c r="AI519" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ519" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ519" t="s" s="2">
+      <c r="AK519" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK519" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL519" t="s" s="2">
         <v>74</v>
@@ -61910,7 +61906,7 @@
         <v>256</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C545" t="s" s="2">
         <v>74</v>
@@ -61935,10 +61931,10 @@
         <v>238</v>
       </c>
       <c r="K545" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L545" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L545" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M545" s="2"/>
       <c r="N545" s="2"/>
@@ -62575,7 +62571,7 @@
       </c>
       <c r="B551" s="2"/>
       <c r="C551" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62594,16 +62590,16 @@
         <v>74</v>
       </c>
       <c r="J551" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K551" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L551" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L551" t="s" s="2">
+      <c r="M551" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M551" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N551" s="2"/>
       <c r="O551" t="s" s="2">
@@ -62665,13 +62661,13 @@
         <v>74</v>
       </c>
       <c r="AI551" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ551" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ551" t="s" s="2">
+      <c r="AK551" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK551" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL551" t="s" s="2">
         <v>74</v>
@@ -65440,7 +65436,7 @@
         <v>256</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C577" t="s" s="2">
         <v>74</v>
@@ -65465,10 +65461,10 @@
         <v>238</v>
       </c>
       <c r="K577" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L577" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="L577" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M577" s="2"/>
       <c r="N577" s="2"/>
@@ -66105,7 +66101,7 @@
       </c>
       <c r="B583" s="2"/>
       <c r="C583" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -66124,16 +66120,16 @@
         <v>74</v>
       </c>
       <c r="J583" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K583" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L583" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L583" t="s" s="2">
+      <c r="M583" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M583" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N583" s="2"/>
       <c r="O583" t="s" s="2">
@@ -66195,13 +66191,13 @@
         <v>74</v>
       </c>
       <c r="AI583" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ583" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ583" t="s" s="2">
+      <c r="AK583" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK583" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL583" t="s" s="2">
         <v>74</v>
@@ -68970,7 +68966,7 @@
         <v>256</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C609" t="s" s="2">
         <v>74</v>
@@ -68995,10 +68991,10 @@
         <v>238</v>
       </c>
       <c r="K609" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L609" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L609" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M609" s="2"/>
       <c r="N609" s="2"/>
@@ -69635,7 +69631,7 @@
       </c>
       <c r="B615" s="2"/>
       <c r="C615" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -69654,16 +69650,16 @@
         <v>74</v>
       </c>
       <c r="J615" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K615" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L615" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L615" t="s" s="2">
+      <c r="M615" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M615" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N615" s="2"/>
       <c r="O615" t="s" s="2">
@@ -69725,13 +69721,13 @@
         <v>74</v>
       </c>
       <c r="AI615" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ615" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ615" t="s" s="2">
+      <c r="AK615" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK615" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL615" t="s" s="2">
         <v>74</v>
@@ -72500,7 +72496,7 @@
         <v>256</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C641" t="s" s="2">
         <v>74</v>
@@ -72525,10 +72521,10 @@
         <v>238</v>
       </c>
       <c r="K641" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L641" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L641" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M641" s="2"/>
       <c r="N641" s="2"/>
@@ -73165,7 +73161,7 @@
       </c>
       <c r="B647" s="2"/>
       <c r="C647" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -73184,16 +73180,16 @@
         <v>74</v>
       </c>
       <c r="J647" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K647" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L647" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L647" t="s" s="2">
+      <c r="M647" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M647" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N647" s="2"/>
       <c r="O647" t="s" s="2">
@@ -73255,13 +73251,13 @@
         <v>74</v>
       </c>
       <c r="AI647" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ647" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ647" t="s" s="2">
+      <c r="AK647" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK647" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL647" t="s" s="2">
         <v>74</v>
@@ -76030,7 +76026,7 @@
         <v>256</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C673" t="s" s="2">
         <v>74</v>
@@ -76055,10 +76051,10 @@
         <v>238</v>
       </c>
       <c r="K673" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L673" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L673" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M673" s="2"/>
       <c r="N673" s="2"/>
@@ -76695,7 +76691,7 @@
       </c>
       <c r="B679" s="2"/>
       <c r="C679" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -76714,16 +76710,16 @@
         <v>74</v>
       </c>
       <c r="J679" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K679" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L679" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L679" t="s" s="2">
+      <c r="M679" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M679" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N679" s="2"/>
       <c r="O679" t="s" s="2">
@@ -76785,13 +76781,13 @@
         <v>74</v>
       </c>
       <c r="AI679" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ679" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ679" t="s" s="2">
+      <c r="AK679" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK679" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL679" t="s" s="2">
         <v>74</v>
@@ -79560,7 +79556,7 @@
         <v>256</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C705" t="s" s="2">
         <v>74</v>
@@ -79585,10 +79581,10 @@
         <v>238</v>
       </c>
       <c r="K705" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L705" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L705" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="M705" s="2"/>
       <c r="N705" s="2"/>
@@ -80225,7 +80221,7 @@
       </c>
       <c r="B711" s="2"/>
       <c r="C711" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
@@ -80244,16 +80240,16 @@
         <v>74</v>
       </c>
       <c r="J711" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K711" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L711" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L711" t="s" s="2">
+      <c r="M711" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M711" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N711" s="2"/>
       <c r="O711" t="s" s="2">
@@ -80315,13 +80311,13 @@
         <v>74</v>
       </c>
       <c r="AI711" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ711" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ711" t="s" s="2">
+      <c r="AK711" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK711" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL711" t="s" s="2">
         <v>74</v>
@@ -83090,7 +83086,7 @@
         <v>256</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C737" t="s" s="2">
         <v>74</v>
@@ -83115,10 +83111,10 @@
         <v>238</v>
       </c>
       <c r="K737" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L737" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L737" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M737" s="2"/>
       <c r="N737" s="2"/>
@@ -83755,7 +83751,7 @@
       </c>
       <c r="B743" s="2"/>
       <c r="C743" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D743" s="2"/>
       <c r="E743" t="s" s="2">
@@ -83774,16 +83770,16 @@
         <v>74</v>
       </c>
       <c r="J743" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K743" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L743" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L743" t="s" s="2">
+      <c r="M743" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M743" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N743" s="2"/>
       <c r="O743" t="s" s="2">
@@ -83845,13 +83841,13 @@
         <v>74</v>
       </c>
       <c r="AI743" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ743" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ743" t="s" s="2">
+      <c r="AK743" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK743" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AL743" t="s" s="2">
         <v>74</v>
@@ -86617,7 +86613,7 @@
     </row>
     <row r="769" hidden="true">
       <c r="A769" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B769" s="2"/>
       <c r="C769" t="s" s="2">
@@ -86640,19 +86636,19 @@
         <v>83</v>
       </c>
       <c r="J769" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K769" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K769" t="s" s="2">
+      <c r="L769" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L769" t="s" s="2">
+      <c r="M769" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M769" t="s" s="2">
+      <c r="N769" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N769" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O769" t="s" s="2">
         <v>74</v>
@@ -86701,7 +86697,7 @@
         <v>74</v>
       </c>
       <c r="AE769" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF769" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27461" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27461" uniqueCount="1184">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1393,12 +1393,6 @@
     <t>msCoordinator</t>
   </si>
   <si>
-    <t>Search Coordinator for Patient needing transplant</t>
-  </si>
-  <si>
-    <t>The Search Coordinator for the MatchSync patient (required element).</t>
-  </si>
-  <si>
     <t>Bundle.entry:msCoordinator.id</t>
   </si>
   <si>
@@ -1415,22 +1409,6 @@
   </si>
   <si>
     <t>Bundle.entry:msCoordinator.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practitioner {http://fhir.nmdp.org/ig/matchsync/StructureDefinition/transplantcentercoordinator}
-</t>
-  </si>
-  <si>
-    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
-  </si>
-  <si>
-    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
-  </si>
-  <si>
-    <t>PRD (as one example)</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
   <si>
     <t>Bundle.entry:msCoordinator.search</t>
@@ -18577,10 +18555,10 @@
         <v>248</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>442</v>
+        <v>268</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>443</v>
+        <v>269</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18660,7 +18638,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>273</v>
@@ -18772,7 +18750,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>274</v>
@@ -18886,7 +18864,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>275</v>
@@ -19002,7 +18980,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>276</v>
@@ -19114,7 +19092,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>279</v>
@@ -19228,7 +19206,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>283</v>
@@ -19251,16 +19229,16 @@
         <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>450</v>
+        <v>284</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>451</v>
+        <v>285</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>452</v>
+        <v>286</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19323,13 +19301,13 @@
         <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>454</v>
+        <v>75</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -19340,7 +19318,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>287</v>
@@ -19452,7 +19430,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>291</v>
@@ -19564,7 +19542,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>292</v>
@@ -19678,7 +19656,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>293</v>
@@ -19794,7 +19772,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>294</v>
@@ -19908,7 +19886,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>300</v>
@@ -20022,7 +20000,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>305</v>
@@ -20134,7 +20112,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>309</v>
@@ -20246,7 +20224,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>310</v>
@@ -20360,7 +20338,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>311</v>
@@ -20476,7 +20454,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>312</v>
@@ -20588,7 +20566,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>317</v>
@@ -20702,7 +20680,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>321</v>
@@ -20814,7 +20792,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>324</v>
@@ -20926,7 +20904,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>326</v>
@@ -21038,7 +21016,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>329</v>
@@ -21150,7 +21128,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>332</v>
@@ -21262,7 +21240,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>336</v>
@@ -21374,7 +21352,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>337</v>
@@ -21488,7 +21466,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>338</v>
@@ -21604,7 +21582,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>339</v>
@@ -21716,7 +21694,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>342</v>
@@ -21828,7 +21806,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>345</v>
@@ -21942,7 +21920,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>349</v>
@@ -22056,7 +22034,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>353</v>
@@ -22170,13 +22148,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>75</v>
@@ -22201,10 +22179,10 @@
         <v>248</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22284,7 +22262,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>273</v>
@@ -22396,7 +22374,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>274</v>
@@ -22510,7 +22488,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>275</v>
@@ -22626,7 +22604,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>276</v>
@@ -22738,7 +22716,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>279</v>
@@ -22852,7 +22830,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>283</v>
@@ -22878,13 +22856,13 @@
         <v>75</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22947,13 +22925,13 @@
         <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -22964,7 +22942,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>287</v>
@@ -23076,7 +23054,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>291</v>
@@ -23188,7 +23166,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>292</v>
@@ -23302,7 +23280,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>293</v>
@@ -23418,7 +23396,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>294</v>
@@ -23532,7 +23510,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>300</v>
@@ -23646,7 +23624,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>305</v>
@@ -23758,7 +23736,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>309</v>
@@ -23870,7 +23848,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>310</v>
@@ -23984,7 +23962,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>311</v>
@@ -24100,7 +24078,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>312</v>
@@ -24212,7 +24190,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>317</v>
@@ -24326,7 +24304,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>321</v>
@@ -24438,7 +24416,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>324</v>
@@ -24550,7 +24528,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>326</v>
@@ -24662,7 +24640,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>329</v>
@@ -24774,7 +24752,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>332</v>
@@ -24886,7 +24864,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>336</v>
@@ -24998,7 +24976,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>337</v>
@@ -25112,7 +25090,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>338</v>
@@ -25228,7 +25206,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>339</v>
@@ -25340,7 +25318,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>342</v>
@@ -25452,7 +25430,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>345</v>
@@ -25566,7 +25544,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>349</v>
@@ -25680,7 +25658,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>353</v>
@@ -25794,13 +25772,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>75</v>
@@ -25825,10 +25803,10 @@
         <v>248</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -25908,7 +25886,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>273</v>
@@ -26020,7 +25998,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>274</v>
@@ -26134,7 +26112,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>275</v>
@@ -26250,7 +26228,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>276</v>
@@ -26362,7 +26340,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>279</v>
@@ -26476,14 +26454,14 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
@@ -26502,16 +26480,16 @@
         <v>75</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -26573,13 +26551,13 @@
         <v>75</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>75</v>
@@ -26590,7 +26568,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>287</v>
@@ -26702,7 +26680,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>291</v>
@@ -26814,7 +26792,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>292</v>
@@ -26928,7 +26906,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>293</v>
@@ -27044,7 +27022,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>294</v>
@@ -27158,7 +27136,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>300</v>
@@ -27272,7 +27250,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>305</v>
@@ -27384,7 +27362,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>309</v>
@@ -27496,7 +27474,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>310</v>
@@ -27610,7 +27588,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>311</v>
@@ -27726,7 +27704,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>312</v>
@@ -27838,7 +27816,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>317</v>
@@ -27952,7 +27930,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>321</v>
@@ -28064,7 +28042,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>324</v>
@@ -28176,7 +28154,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>326</v>
@@ -28288,7 +28266,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>329</v>
@@ -28400,7 +28378,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>332</v>
@@ -28512,7 +28490,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>336</v>
@@ -28624,7 +28602,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>337</v>
@@ -28738,7 +28716,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>338</v>
@@ -28854,7 +28832,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>339</v>
@@ -28966,7 +28944,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>342</v>
@@ -29078,7 +29056,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>345</v>
@@ -29192,7 +29170,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>349</v>
@@ -29306,7 +29284,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>353</v>
@@ -29420,13 +29398,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>75</v>
@@ -29451,10 +29429,10 @@
         <v>248</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -29534,7 +29512,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>273</v>
@@ -29646,7 +29624,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>274</v>
@@ -29760,7 +29738,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>275</v>
@@ -29876,7 +29854,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>276</v>
@@ -29988,7 +29966,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>279</v>
@@ -30102,14 +30080,14 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
@@ -30128,16 +30106,16 @@
         <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -30199,13 +30177,13 @@
         <v>75</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>75</v>
@@ -30216,7 +30194,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>287</v>
@@ -30328,7 +30306,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>291</v>
@@ -30440,7 +30418,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>292</v>
@@ -30554,7 +30532,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>293</v>
@@ -30670,7 +30648,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>294</v>
@@ -30784,7 +30762,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>300</v>
@@ -30898,7 +30876,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>305</v>
@@ -31010,7 +30988,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>309</v>
@@ -31122,7 +31100,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>310</v>
@@ -31236,7 +31214,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>311</v>
@@ -31352,7 +31330,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>312</v>
@@ -31464,7 +31442,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>317</v>
@@ -31578,7 +31556,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>321</v>
@@ -31690,7 +31668,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>324</v>
@@ -31802,7 +31780,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>326</v>
@@ -31914,7 +31892,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>329</v>
@@ -32026,7 +32004,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>332</v>
@@ -32138,7 +32116,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>336</v>
@@ -32250,7 +32228,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>337</v>
@@ -32364,7 +32342,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>338</v>
@@ -32480,7 +32458,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>339</v>
@@ -32592,7 +32570,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>342</v>
@@ -32704,7 +32682,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>345</v>
@@ -32818,7 +32796,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>349</v>
@@ -32932,7 +32910,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>353</v>
@@ -33046,13 +33024,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>75</v>
@@ -33077,10 +33055,10 @@
         <v>248</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -33160,7 +33138,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>273</v>
@@ -33272,7 +33250,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>274</v>
@@ -33386,7 +33364,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>275</v>
@@ -33502,7 +33480,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>276</v>
@@ -33614,7 +33592,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>279</v>
@@ -33728,14 +33706,14 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -33754,16 +33732,16 @@
         <v>75</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -33825,13 +33803,13 @@
         <v>75</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>75</v>
@@ -33842,7 +33820,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>287</v>
@@ -33954,7 +33932,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>291</v>
@@ -34066,7 +34044,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>292</v>
@@ -34180,7 +34158,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>293</v>
@@ -34296,7 +34274,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>294</v>
@@ -34410,7 +34388,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>300</v>
@@ -34524,7 +34502,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>305</v>
@@ -34636,7 +34614,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>309</v>
@@ -34748,7 +34726,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>310</v>
@@ -34862,7 +34840,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>311</v>
@@ -34978,7 +34956,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>312</v>
@@ -35090,7 +35068,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>317</v>
@@ -35204,7 +35182,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>321</v>
@@ -35316,7 +35294,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>324</v>
@@ -35428,7 +35406,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>326</v>
@@ -35540,7 +35518,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>329</v>
@@ -35652,7 +35630,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>332</v>
@@ -35764,7 +35742,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>336</v>
@@ -35876,7 +35854,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>337</v>
@@ -35990,7 +35968,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>338</v>
@@ -36106,7 +36084,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>339</v>
@@ -36218,7 +36196,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>342</v>
@@ -36330,7 +36308,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>345</v>
@@ -36444,7 +36422,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>349</v>
@@ -36558,7 +36536,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>353</v>
@@ -36672,13 +36650,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>75</v>
@@ -36703,10 +36681,10 @@
         <v>248</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -36786,7 +36764,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>273</v>
@@ -36898,7 +36876,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>274</v>
@@ -37012,7 +36990,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>275</v>
@@ -37128,7 +37106,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>276</v>
@@ -37240,7 +37218,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>279</v>
@@ -37354,14 +37332,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -37380,16 +37358,16 @@
         <v>75</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
@@ -37451,13 +37429,13 @@
         <v>75</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>75</v>
@@ -37468,7 +37446,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>287</v>
@@ -37580,7 +37558,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>291</v>
@@ -37692,7 +37670,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>292</v>
@@ -37806,7 +37784,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>293</v>
@@ -37922,7 +37900,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>294</v>
@@ -38036,7 +38014,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>300</v>
@@ -38150,7 +38128,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>305</v>
@@ -38262,7 +38240,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>309</v>
@@ -38374,7 +38352,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>310</v>
@@ -38488,7 +38466,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>311</v>
@@ -38604,7 +38582,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>312</v>
@@ -38716,7 +38694,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>317</v>
@@ -38830,7 +38808,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>321</v>
@@ -38942,7 +38920,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>324</v>
@@ -39054,7 +39032,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>326</v>
@@ -39166,7 +39144,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>329</v>
@@ -39278,7 +39256,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>332</v>
@@ -39390,7 +39368,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>336</v>
@@ -39502,7 +39480,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>337</v>
@@ -39616,7 +39594,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>338</v>
@@ -39732,7 +39710,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>339</v>
@@ -39844,7 +39822,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>342</v>
@@ -39956,7 +39934,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>345</v>
@@ -40070,7 +40048,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>349</v>
@@ -40184,7 +40162,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>353</v>
@@ -40298,13 +40276,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>75</v>
@@ -40329,10 +40307,10 @@
         <v>248</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -40412,7 +40390,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>273</v>
@@ -40524,7 +40502,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>274</v>
@@ -40638,7 +40616,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>275</v>
@@ -40754,7 +40732,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>276</v>
@@ -40866,7 +40844,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>279</v>
@@ -40980,14 +40958,14 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -41006,16 +40984,16 @@
         <v>75</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -41077,13 +41055,13 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>75</v>
@@ -41094,7 +41072,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>287</v>
@@ -41206,7 +41184,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>291</v>
@@ -41318,7 +41296,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>292</v>
@@ -41432,7 +41410,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>293</v>
@@ -41548,7 +41526,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>294</v>
@@ -41662,7 +41640,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>300</v>
@@ -41776,7 +41754,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>305</v>
@@ -41888,7 +41866,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>309</v>
@@ -42000,7 +41978,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>310</v>
@@ -42114,7 +42092,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>311</v>
@@ -42230,7 +42208,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>312</v>
@@ -42342,7 +42320,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>317</v>
@@ -42456,7 +42434,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>321</v>
@@ -42568,7 +42546,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>324</v>
@@ -42680,7 +42658,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>326</v>
@@ -42792,7 +42770,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>329</v>
@@ -42904,7 +42882,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>332</v>
@@ -43016,7 +42994,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>336</v>
@@ -43128,7 +43106,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>337</v>
@@ -43242,7 +43220,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>338</v>
@@ -43358,7 +43336,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>339</v>
@@ -43470,7 +43448,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>342</v>
@@ -43582,7 +43560,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>345</v>
@@ -43696,7 +43674,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>349</v>
@@ -43810,7 +43788,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>353</v>
@@ -43924,13 +43902,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>75</v>
@@ -43955,10 +43933,10 @@
         <v>248</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -44038,7 +44016,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>273</v>
@@ -44150,7 +44128,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>274</v>
@@ -44264,7 +44242,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>275</v>
@@ -44380,7 +44358,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>276</v>
@@ -44492,7 +44470,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>279</v>
@@ -44606,14 +44584,14 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" t="s" s="2">
@@ -44632,16 +44610,16 @@
         <v>75</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -44703,13 +44681,13 @@
         <v>75</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>75</v>
@@ -44720,7 +44698,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>287</v>
@@ -44832,7 +44810,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>291</v>
@@ -44944,7 +44922,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>292</v>
@@ -45058,7 +45036,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>293</v>
@@ -45174,7 +45152,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>294</v>
@@ -45288,7 +45266,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>300</v>
@@ -45402,7 +45380,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>305</v>
@@ -45514,7 +45492,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>309</v>
@@ -45626,7 +45604,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>310</v>
@@ -45740,7 +45718,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>311</v>
@@ -45856,7 +45834,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>312</v>
@@ -45968,7 +45946,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>317</v>
@@ -46082,7 +46060,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>321</v>
@@ -46194,7 +46172,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>324</v>
@@ -46306,7 +46284,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>326</v>
@@ -46418,7 +46396,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>329</v>
@@ -46530,7 +46508,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>332</v>
@@ -46642,7 +46620,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>336</v>
@@ -46754,7 +46732,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>337</v>
@@ -46868,7 +46846,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>338</v>
@@ -46984,7 +46962,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>339</v>
@@ -47096,7 +47074,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>342</v>
@@ -47208,7 +47186,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>345</v>
@@ -47322,7 +47300,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>349</v>
@@ -47436,7 +47414,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>353</v>
@@ -47550,13 +47528,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>75</v>
@@ -47581,10 +47559,10 @@
         <v>248</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
@@ -47664,7 +47642,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>273</v>
@@ -47776,7 +47754,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>274</v>
@@ -47890,7 +47868,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>275</v>
@@ -48006,7 +47984,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>276</v>
@@ -48118,7 +48096,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>279</v>
@@ -48232,7 +48210,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>283</v>
@@ -48258,13 +48236,13 @@
         <v>75</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
@@ -48333,7 +48311,7 @@
         <v>75</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>75</v>
@@ -48344,7 +48322,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>287</v>
@@ -48456,7 +48434,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>291</v>
@@ -48568,7 +48546,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>292</v>
@@ -48682,7 +48660,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>293</v>
@@ -48798,7 +48776,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>294</v>
@@ -48912,7 +48890,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>300</v>
@@ -49026,7 +49004,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>305</v>
@@ -49138,7 +49116,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>309</v>
@@ -49250,7 +49228,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>310</v>
@@ -49364,7 +49342,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>311</v>
@@ -49480,7 +49458,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>312</v>
@@ -49592,7 +49570,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>317</v>
@@ -49706,7 +49684,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>321</v>
@@ -49818,7 +49796,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>324</v>
@@ -49930,7 +49908,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>326</v>
@@ -50042,7 +50020,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>329</v>
@@ -50154,7 +50132,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>332</v>
@@ -50266,7 +50244,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>336</v>
@@ -50378,7 +50356,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>337</v>
@@ -50492,7 +50470,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>338</v>
@@ -50608,7 +50586,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>339</v>
@@ -50720,7 +50698,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>342</v>
@@ -50832,7 +50810,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>345</v>
@@ -50946,7 +50924,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>349</v>
@@ -51060,7 +51038,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>353</v>
@@ -51174,13 +51152,13 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>75</v>
@@ -51205,10 +51183,10 @@
         <v>248</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -51288,7 +51266,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>273</v>
@@ -51400,7 +51378,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>274</v>
@@ -51514,7 +51492,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>275</v>
@@ -51630,7 +51608,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>276</v>
@@ -51742,7 +51720,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>279</v>
@@ -51856,14 +51834,14 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -51882,16 +51860,16 @@
         <v>75</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
@@ -51953,13 +51931,13 @@
         <v>75</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>75</v>
@@ -51970,7 +51948,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>287</v>
@@ -52082,7 +52060,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>291</v>
@@ -52194,7 +52172,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>292</v>
@@ -52308,7 +52286,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>293</v>
@@ -52424,7 +52402,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>294</v>
@@ -52538,7 +52516,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>300</v>
@@ -52652,7 +52630,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>305</v>
@@ -52764,7 +52742,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>309</v>
@@ -52876,7 +52854,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>310</v>
@@ -52990,7 +52968,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>311</v>
@@ -53106,7 +53084,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>312</v>
@@ -53218,7 +53196,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>317</v>
@@ -53332,7 +53310,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>321</v>
@@ -53444,7 +53422,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>324</v>
@@ -53556,7 +53534,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>326</v>
@@ -53668,7 +53646,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>329</v>
@@ -53780,7 +53758,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>332</v>
@@ -53892,7 +53870,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>336</v>
@@ -54004,7 +53982,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>337</v>
@@ -54118,7 +54096,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>338</v>
@@ -54234,7 +54212,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>339</v>
@@ -54346,7 +54324,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>342</v>
@@ -54458,7 +54436,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>345</v>
@@ -54572,7 +54550,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>349</v>
@@ -54686,7 +54664,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>353</v>
@@ -54800,13 +54778,13 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="D449" t="s" s="2">
         <v>75</v>
@@ -54831,10 +54809,10 @@
         <v>248</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
@@ -54914,7 +54892,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>273</v>
@@ -55026,7 +55004,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>274</v>
@@ -55140,7 +55118,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>275</v>
@@ -55256,7 +55234,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>276</v>
@@ -55368,7 +55346,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>279</v>
@@ -55482,14 +55460,14 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E455" s="2"/>
       <c r="F455" t="s" s="2">
@@ -55508,16 +55486,16 @@
         <v>75</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
@@ -55579,13 +55557,13 @@
         <v>75</v>
       </c>
       <c r="AJ455" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK455" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL455" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM455" t="s" s="2">
         <v>75</v>
@@ -55596,7 +55574,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>287</v>
@@ -55708,7 +55686,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>291</v>
@@ -55820,7 +55798,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>292</v>
@@ -55934,7 +55912,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>293</v>
@@ -56050,7 +56028,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>294</v>
@@ -56164,7 +56142,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>300</v>
@@ -56278,7 +56256,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>305</v>
@@ -56390,7 +56368,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>309</v>
@@ -56502,7 +56480,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>310</v>
@@ -56616,7 +56594,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>311</v>
@@ -56732,7 +56710,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>312</v>
@@ -56844,7 +56822,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>317</v>
@@ -56958,7 +56936,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>321</v>
@@ -57070,7 +57048,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>324</v>
@@ -57182,7 +57160,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>326</v>
@@ -57294,7 +57272,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>329</v>
@@ -57406,7 +57384,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>332</v>
@@ -57518,7 +57496,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>336</v>
@@ -57630,7 +57608,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>337</v>
@@ -57744,7 +57722,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>338</v>
@@ -57860,7 +57838,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>339</v>
@@ -57972,7 +57950,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>342</v>
@@ -58084,7 +58062,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>345</v>
@@ -58198,7 +58176,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>349</v>
@@ -58312,7 +58290,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>353</v>
@@ -58426,13 +58404,13 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D481" t="s" s="2">
         <v>75</v>
@@ -58457,10 +58435,10 @@
         <v>248</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
@@ -58540,7 +58518,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>273</v>
@@ -58652,7 +58630,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>274</v>
@@ -58766,7 +58744,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>275</v>
@@ -58882,7 +58860,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>276</v>
@@ -58994,7 +58972,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>279</v>
@@ -59108,14 +59086,14 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E487" s="2"/>
       <c r="F487" t="s" s="2">
@@ -59134,16 +59112,16 @@
         <v>75</v>
       </c>
       <c r="K487" t="s" s="2">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="L487" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N487" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O487" s="2"/>
       <c r="P487" t="s" s="2">
@@ -59205,13 +59183,13 @@
         <v>75</v>
       </c>
       <c r="AJ487" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK487" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL487" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM487" t="s" s="2">
         <v>75</v>
@@ -59222,7 +59200,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>287</v>
@@ -59334,7 +59312,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>291</v>
@@ -59446,7 +59424,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>292</v>
@@ -59560,7 +59538,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>293</v>
@@ -59676,7 +59654,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>294</v>
@@ -59790,7 +59768,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>300</v>
@@ -59904,7 +59882,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>305</v>
@@ -60016,7 +59994,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>309</v>
@@ -60128,7 +60106,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>310</v>
@@ -60242,7 +60220,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>311</v>
@@ -60358,7 +60336,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>312</v>
@@ -60470,7 +60448,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>317</v>
@@ -60584,7 +60562,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>321</v>
@@ -60696,7 +60674,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>324</v>
@@ -60808,7 +60786,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>326</v>
@@ -60920,7 +60898,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>329</v>
@@ -61032,7 +61010,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>332</v>
@@ -61144,7 +61122,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>336</v>
@@ -61256,7 +61234,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>337</v>
@@ -61370,7 +61348,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>338</v>
@@ -61486,7 +61464,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>339</v>
@@ -61598,7 +61576,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>342</v>
@@ -61710,7 +61688,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>345</v>
@@ -61824,7 +61802,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>349</v>
@@ -61938,7 +61916,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>353</v>
@@ -62052,13 +62030,13 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D513" t="s" s="2">
         <v>75</v>
@@ -62083,10 +62061,10 @@
         <v>248</v>
       </c>
       <c r="L513" t="s" s="2">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="M513" t="s" s="2">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="N513" s="2"/>
       <c r="O513" s="2"/>
@@ -62166,7 +62144,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>273</v>
@@ -62278,7 +62256,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>274</v>
@@ -62392,7 +62370,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>275</v>
@@ -62508,7 +62486,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>276</v>
@@ -62620,7 +62598,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>279</v>
@@ -62734,14 +62712,14 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E519" s="2"/>
       <c r="F519" t="s" s="2">
@@ -62760,16 +62738,16 @@
         <v>75</v>
       </c>
       <c r="K519" t="s" s="2">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="L519" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M519" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O519" s="2"/>
       <c r="P519" t="s" s="2">
@@ -62831,13 +62809,13 @@
         <v>75</v>
       </c>
       <c r="AJ519" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK519" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL519" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM519" t="s" s="2">
         <v>75</v>
@@ -62848,7 +62826,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>287</v>
@@ -62960,7 +62938,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>291</v>
@@ -63072,7 +63050,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>292</v>
@@ -63186,7 +63164,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>293</v>
@@ -63302,7 +63280,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>294</v>
@@ -63416,7 +63394,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>300</v>
@@ -63530,7 +63508,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>305</v>
@@ -63642,7 +63620,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>309</v>
@@ -63754,7 +63732,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>310</v>
@@ -63868,7 +63846,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>311</v>
@@ -63984,7 +63962,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>312</v>
@@ -64096,7 +64074,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>317</v>
@@ -64210,7 +64188,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>321</v>
@@ -64322,7 +64300,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>324</v>
@@ -64434,7 +64412,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>326</v>
@@ -64546,7 +64524,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>329</v>
@@ -64658,7 +64636,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>332</v>
@@ -64770,7 +64748,7 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>336</v>
@@ -64882,7 +64860,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>337</v>
@@ -64996,7 +64974,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>338</v>
@@ -65112,7 +65090,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>339</v>
@@ -65224,7 +65202,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>342</v>
@@ -65336,7 +65314,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>345</v>
@@ -65450,7 +65428,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>349</v>
@@ -65564,7 +65542,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>353</v>
@@ -65678,13 +65656,13 @@
     </row>
     <row r="545" hidden="true">
       <c r="A545" t="s" s="2">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D545" t="s" s="2">
         <v>75</v>
@@ -65709,10 +65687,10 @@
         <v>248</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="N545" s="2"/>
       <c r="O545" s="2"/>
@@ -65792,7 +65770,7 @@
     </row>
     <row r="546" hidden="true">
       <c r="A546" t="s" s="2">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>273</v>
@@ -65904,7 +65882,7 @@
     </row>
     <row r="547" hidden="true">
       <c r="A547" t="s" s="2">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>274</v>
@@ -66018,7 +65996,7 @@
     </row>
     <row r="548" hidden="true">
       <c r="A548" t="s" s="2">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>275</v>
@@ -66134,7 +66112,7 @@
     </row>
     <row r="549" hidden="true">
       <c r="A549" t="s" s="2">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>276</v>
@@ -66246,7 +66224,7 @@
     </row>
     <row r="550" hidden="true">
       <c r="A550" t="s" s="2">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>279</v>
@@ -66360,14 +66338,14 @@
     </row>
     <row r="551" hidden="true">
       <c r="A551" t="s" s="2">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E551" s="2"/>
       <c r="F551" t="s" s="2">
@@ -66386,16 +66364,16 @@
         <v>75</v>
       </c>
       <c r="K551" t="s" s="2">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="L551" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O551" s="2"/>
       <c r="P551" t="s" s="2">
@@ -66457,13 +66435,13 @@
         <v>75</v>
       </c>
       <c r="AJ551" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK551" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL551" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM551" t="s" s="2">
         <v>75</v>
@@ -66474,7 +66452,7 @@
     </row>
     <row r="552" hidden="true">
       <c r="A552" t="s" s="2">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>287</v>
@@ -66586,7 +66564,7 @@
     </row>
     <row r="553" hidden="true">
       <c r="A553" t="s" s="2">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>291</v>
@@ -66698,7 +66676,7 @@
     </row>
     <row r="554" hidden="true">
       <c r="A554" t="s" s="2">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>292</v>
@@ -66812,7 +66790,7 @@
     </row>
     <row r="555" hidden="true">
       <c r="A555" t="s" s="2">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>293</v>
@@ -66928,7 +66906,7 @@
     </row>
     <row r="556" hidden="true">
       <c r="A556" t="s" s="2">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>294</v>
@@ -67042,7 +67020,7 @@
     </row>
     <row r="557" hidden="true">
       <c r="A557" t="s" s="2">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>300</v>
@@ -67156,7 +67134,7 @@
     </row>
     <row r="558" hidden="true">
       <c r="A558" t="s" s="2">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>305</v>
@@ -67268,7 +67246,7 @@
     </row>
     <row r="559" hidden="true">
       <c r="A559" t="s" s="2">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>309</v>
@@ -67380,7 +67358,7 @@
     </row>
     <row r="560" hidden="true">
       <c r="A560" t="s" s="2">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>310</v>
@@ -67494,7 +67472,7 @@
     </row>
     <row r="561" hidden="true">
       <c r="A561" t="s" s="2">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>311</v>
@@ -67610,7 +67588,7 @@
     </row>
     <row r="562" hidden="true">
       <c r="A562" t="s" s="2">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>312</v>
@@ -67722,7 +67700,7 @@
     </row>
     <row r="563" hidden="true">
       <c r="A563" t="s" s="2">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>317</v>
@@ -67836,7 +67814,7 @@
     </row>
     <row r="564" hidden="true">
       <c r="A564" t="s" s="2">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>321</v>
@@ -67948,7 +67926,7 @@
     </row>
     <row r="565" hidden="true">
       <c r="A565" t="s" s="2">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>324</v>
@@ -68060,7 +68038,7 @@
     </row>
     <row r="566" hidden="true">
       <c r="A566" t="s" s="2">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>326</v>
@@ -68172,7 +68150,7 @@
     </row>
     <row r="567" hidden="true">
       <c r="A567" t="s" s="2">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>329</v>
@@ -68284,7 +68262,7 @@
     </row>
     <row r="568" hidden="true">
       <c r="A568" t="s" s="2">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>332</v>
@@ -68396,7 +68374,7 @@
     </row>
     <row r="569" hidden="true">
       <c r="A569" t="s" s="2">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B569" t="s" s="2">
         <v>336</v>
@@ -68508,7 +68486,7 @@
     </row>
     <row r="570" hidden="true">
       <c r="A570" t="s" s="2">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B570" t="s" s="2">
         <v>337</v>
@@ -68622,7 +68600,7 @@
     </row>
     <row r="571" hidden="true">
       <c r="A571" t="s" s="2">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B571" t="s" s="2">
         <v>338</v>
@@ -68738,7 +68716,7 @@
     </row>
     <row r="572" hidden="true">
       <c r="A572" t="s" s="2">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="B572" t="s" s="2">
         <v>339</v>
@@ -68850,7 +68828,7 @@
     </row>
     <row r="573" hidden="true">
       <c r="A573" t="s" s="2">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="B573" t="s" s="2">
         <v>342</v>
@@ -68962,7 +68940,7 @@
     </row>
     <row r="574" hidden="true">
       <c r="A574" t="s" s="2">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B574" t="s" s="2">
         <v>345</v>
@@ -69076,7 +69054,7 @@
     </row>
     <row r="575" hidden="true">
       <c r="A575" t="s" s="2">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B575" t="s" s="2">
         <v>349</v>
@@ -69190,7 +69168,7 @@
     </row>
     <row r="576" hidden="true">
       <c r="A576" t="s" s="2">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B576" t="s" s="2">
         <v>353</v>
@@ -69304,13 +69282,13 @@
     </row>
     <row r="577" hidden="true">
       <c r="A577" t="s" s="2">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B577" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D577" t="s" s="2">
         <v>75</v>
@@ -69335,10 +69313,10 @@
         <v>248</v>
       </c>
       <c r="L577" t="s" s="2">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="N577" s="2"/>
       <c r="O577" s="2"/>
@@ -69418,7 +69396,7 @@
     </row>
     <row r="578" hidden="true">
       <c r="A578" t="s" s="2">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="B578" t="s" s="2">
         <v>273</v>
@@ -69530,7 +69508,7 @@
     </row>
     <row r="579" hidden="true">
       <c r="A579" t="s" s="2">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>274</v>
@@ -69644,7 +69622,7 @@
     </row>
     <row r="580" hidden="true">
       <c r="A580" t="s" s="2">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>275</v>
@@ -69760,7 +69738,7 @@
     </row>
     <row r="581" hidden="true">
       <c r="A581" t="s" s="2">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>276</v>
@@ -69872,7 +69850,7 @@
     </row>
     <row r="582" hidden="true">
       <c r="A582" t="s" s="2">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>279</v>
@@ -69986,14 +69964,14 @@
     </row>
     <row r="583" hidden="true">
       <c r="A583" t="s" s="2">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E583" s="2"/>
       <c r="F583" t="s" s="2">
@@ -70012,16 +69990,16 @@
         <v>75</v>
       </c>
       <c r="K583" t="s" s="2">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="L583" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" t="s" s="2">
@@ -70083,13 +70061,13 @@
         <v>75</v>
       </c>
       <c r="AJ583" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK583" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL583" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM583" t="s" s="2">
         <v>75</v>
@@ -70100,7 +70078,7 @@
     </row>
     <row r="584" hidden="true">
       <c r="A584" t="s" s="2">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>287</v>
@@ -70212,7 +70190,7 @@
     </row>
     <row r="585" hidden="true">
       <c r="A585" t="s" s="2">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>291</v>
@@ -70324,7 +70302,7 @@
     </row>
     <row r="586" hidden="true">
       <c r="A586" t="s" s="2">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>292</v>
@@ -70438,7 +70416,7 @@
     </row>
     <row r="587" hidden="true">
       <c r="A587" t="s" s="2">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B587" t="s" s="2">
         <v>293</v>
@@ -70554,7 +70532,7 @@
     </row>
     <row r="588" hidden="true">
       <c r="A588" t="s" s="2">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B588" t="s" s="2">
         <v>294</v>
@@ -70668,7 +70646,7 @@
     </row>
     <row r="589" hidden="true">
       <c r="A589" t="s" s="2">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="B589" t="s" s="2">
         <v>300</v>
@@ -70782,7 +70760,7 @@
     </row>
     <row r="590" hidden="true">
       <c r="A590" t="s" s="2">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B590" t="s" s="2">
         <v>305</v>
@@ -70894,7 +70872,7 @@
     </row>
     <row r="591" hidden="true">
       <c r="A591" t="s" s="2">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B591" t="s" s="2">
         <v>309</v>
@@ -71006,7 +70984,7 @@
     </row>
     <row r="592" hidden="true">
       <c r="A592" t="s" s="2">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>310</v>
@@ -71120,7 +71098,7 @@
     </row>
     <row r="593" hidden="true">
       <c r="A593" t="s" s="2">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>311</v>
@@ -71236,7 +71214,7 @@
     </row>
     <row r="594" hidden="true">
       <c r="A594" t="s" s="2">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>312</v>
@@ -71348,7 +71326,7 @@
     </row>
     <row r="595" hidden="true">
       <c r="A595" t="s" s="2">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>317</v>
@@ -71462,7 +71440,7 @@
     </row>
     <row r="596" hidden="true">
       <c r="A596" t="s" s="2">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>321</v>
@@ -71574,7 +71552,7 @@
     </row>
     <row r="597" hidden="true">
       <c r="A597" t="s" s="2">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>324</v>
@@ -71686,7 +71664,7 @@
     </row>
     <row r="598" hidden="true">
       <c r="A598" t="s" s="2">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>326</v>
@@ -71798,7 +71776,7 @@
     </row>
     <row r="599" hidden="true">
       <c r="A599" t="s" s="2">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>329</v>
@@ -71910,7 +71888,7 @@
     </row>
     <row r="600" hidden="true">
       <c r="A600" t="s" s="2">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>332</v>
@@ -72022,7 +72000,7 @@
     </row>
     <row r="601" hidden="true">
       <c r="A601" t="s" s="2">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>336</v>
@@ -72134,7 +72112,7 @@
     </row>
     <row r="602" hidden="true">
       <c r="A602" t="s" s="2">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>337</v>
@@ -72248,7 +72226,7 @@
     </row>
     <row r="603" hidden="true">
       <c r="A603" t="s" s="2">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>338</v>
@@ -72364,7 +72342,7 @@
     </row>
     <row r="604" hidden="true">
       <c r="A604" t="s" s="2">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>339</v>
@@ -72476,7 +72454,7 @@
     </row>
     <row r="605" hidden="true">
       <c r="A605" t="s" s="2">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>342</v>
@@ -72588,7 +72566,7 @@
     </row>
     <row r="606" hidden="true">
       <c r="A606" t="s" s="2">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>345</v>
@@ -72702,7 +72680,7 @@
     </row>
     <row r="607" hidden="true">
       <c r="A607" t="s" s="2">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>349</v>
@@ -72816,7 +72794,7 @@
     </row>
     <row r="608" hidden="true">
       <c r="A608" t="s" s="2">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>353</v>
@@ -72930,13 +72908,13 @@
     </row>
     <row r="609" hidden="true">
       <c r="A609" t="s" s="2">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D609" t="s" s="2">
         <v>75</v>
@@ -72961,10 +72939,10 @@
         <v>248</v>
       </c>
       <c r="L609" t="s" s="2">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="M609" t="s" s="2">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="N609" s="2"/>
       <c r="O609" s="2"/>
@@ -73044,7 +73022,7 @@
     </row>
     <row r="610" hidden="true">
       <c r="A610" t="s" s="2">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>273</v>
@@ -73156,7 +73134,7 @@
     </row>
     <row r="611" hidden="true">
       <c r="A611" t="s" s="2">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>274</v>
@@ -73270,7 +73248,7 @@
     </row>
     <row r="612" hidden="true">
       <c r="A612" t="s" s="2">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>275</v>
@@ -73386,7 +73364,7 @@
     </row>
     <row r="613" hidden="true">
       <c r="A613" t="s" s="2">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>276</v>
@@ -73498,7 +73476,7 @@
     </row>
     <row r="614" hidden="true">
       <c r="A614" t="s" s="2">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>279</v>
@@ -73612,14 +73590,14 @@
     </row>
     <row r="615" hidden="true">
       <c r="A615" t="s" s="2">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E615" s="2"/>
       <c r="F615" t="s" s="2">
@@ -73638,16 +73616,16 @@
         <v>75</v>
       </c>
       <c r="K615" t="s" s="2">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="L615" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M615" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N615" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O615" s="2"/>
       <c r="P615" t="s" s="2">
@@ -73709,13 +73687,13 @@
         <v>75</v>
       </c>
       <c r="AJ615" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK615" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL615" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM615" t="s" s="2">
         <v>75</v>
@@ -73726,7 +73704,7 @@
     </row>
     <row r="616" hidden="true">
       <c r="A616" t="s" s="2">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>287</v>
@@ -73838,7 +73816,7 @@
     </row>
     <row r="617" hidden="true">
       <c r="A617" t="s" s="2">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>291</v>
@@ -73950,7 +73928,7 @@
     </row>
     <row r="618" hidden="true">
       <c r="A618" t="s" s="2">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>292</v>
@@ -74064,7 +74042,7 @@
     </row>
     <row r="619" hidden="true">
       <c r="A619" t="s" s="2">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>293</v>
@@ -74180,7 +74158,7 @@
     </row>
     <row r="620" hidden="true">
       <c r="A620" t="s" s="2">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>294</v>
@@ -74294,7 +74272,7 @@
     </row>
     <row r="621" hidden="true">
       <c r="A621" t="s" s="2">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B621" t="s" s="2">
         <v>300</v>
@@ -74408,7 +74386,7 @@
     </row>
     <row r="622" hidden="true">
       <c r="A622" t="s" s="2">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B622" t="s" s="2">
         <v>305</v>
@@ -74520,7 +74498,7 @@
     </row>
     <row r="623" hidden="true">
       <c r="A623" t="s" s="2">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B623" t="s" s="2">
         <v>309</v>
@@ -74632,7 +74610,7 @@
     </row>
     <row r="624" hidden="true">
       <c r="A624" t="s" s="2">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B624" t="s" s="2">
         <v>310</v>
@@ -74746,7 +74724,7 @@
     </row>
     <row r="625" hidden="true">
       <c r="A625" t="s" s="2">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B625" t="s" s="2">
         <v>311</v>
@@ -74862,7 +74840,7 @@
     </row>
     <row r="626" hidden="true">
       <c r="A626" t="s" s="2">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B626" t="s" s="2">
         <v>312</v>
@@ -74974,7 +74952,7 @@
     </row>
     <row r="627" hidden="true">
       <c r="A627" t="s" s="2">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B627" t="s" s="2">
         <v>317</v>
@@ -75088,7 +75066,7 @@
     </row>
     <row r="628" hidden="true">
       <c r="A628" t="s" s="2">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B628" t="s" s="2">
         <v>321</v>
@@ -75200,7 +75178,7 @@
     </row>
     <row r="629" hidden="true">
       <c r="A629" t="s" s="2">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B629" t="s" s="2">
         <v>324</v>
@@ -75312,7 +75290,7 @@
     </row>
     <row r="630" hidden="true">
       <c r="A630" t="s" s="2">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B630" t="s" s="2">
         <v>326</v>
@@ -75424,7 +75402,7 @@
     </row>
     <row r="631" hidden="true">
       <c r="A631" t="s" s="2">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B631" t="s" s="2">
         <v>329</v>
@@ -75536,7 +75514,7 @@
     </row>
     <row r="632" hidden="true">
       <c r="A632" t="s" s="2">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B632" t="s" s="2">
         <v>332</v>
@@ -75648,7 +75626,7 @@
     </row>
     <row r="633" hidden="true">
       <c r="A633" t="s" s="2">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B633" t="s" s="2">
         <v>336</v>
@@ -75760,7 +75738,7 @@
     </row>
     <row r="634" hidden="true">
       <c r="A634" t="s" s="2">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="B634" t="s" s="2">
         <v>337</v>
@@ -75874,7 +75852,7 @@
     </row>
     <row r="635" hidden="true">
       <c r="A635" t="s" s="2">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="B635" t="s" s="2">
         <v>338</v>
@@ -75990,7 +75968,7 @@
     </row>
     <row r="636" hidden="true">
       <c r="A636" t="s" s="2">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B636" t="s" s="2">
         <v>339</v>
@@ -76102,7 +76080,7 @@
     </row>
     <row r="637" hidden="true">
       <c r="A637" t="s" s="2">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="B637" t="s" s="2">
         <v>342</v>
@@ -76214,7 +76192,7 @@
     </row>
     <row r="638" hidden="true">
       <c r="A638" t="s" s="2">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="B638" t="s" s="2">
         <v>345</v>
@@ -76328,7 +76306,7 @@
     </row>
     <row r="639" hidden="true">
       <c r="A639" t="s" s="2">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="B639" t="s" s="2">
         <v>349</v>
@@ -76442,7 +76420,7 @@
     </row>
     <row r="640" hidden="true">
       <c r="A640" t="s" s="2">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="B640" t="s" s="2">
         <v>353</v>
@@ -76556,13 +76534,13 @@
     </row>
     <row r="641" hidden="true">
       <c r="A641" t="s" s="2">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="B641" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="D641" t="s" s="2">
         <v>75</v>
@@ -76587,10 +76565,10 @@
         <v>248</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="N641" s="2"/>
       <c r="O641" s="2"/>
@@ -76670,7 +76648,7 @@
     </row>
     <row r="642" hidden="true">
       <c r="A642" t="s" s="2">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B642" t="s" s="2">
         <v>273</v>
@@ -76782,7 +76760,7 @@
     </row>
     <row r="643" hidden="true">
       <c r="A643" t="s" s="2">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="B643" t="s" s="2">
         <v>274</v>
@@ -76896,7 +76874,7 @@
     </row>
     <row r="644" hidden="true">
       <c r="A644" t="s" s="2">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="B644" t="s" s="2">
         <v>275</v>
@@ -77012,7 +76990,7 @@
     </row>
     <row r="645" hidden="true">
       <c r="A645" t="s" s="2">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B645" t="s" s="2">
         <v>276</v>
@@ -77124,7 +77102,7 @@
     </row>
     <row r="646" hidden="true">
       <c r="A646" t="s" s="2">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="B646" t="s" s="2">
         <v>279</v>
@@ -77238,14 +77216,14 @@
     </row>
     <row r="647" hidden="true">
       <c r="A647" t="s" s="2">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B647" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E647" s="2"/>
       <c r="F647" t="s" s="2">
@@ -77264,16 +77242,16 @@
         <v>75</v>
       </c>
       <c r="K647" t="s" s="2">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="L647" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M647" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N647" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O647" s="2"/>
       <c r="P647" t="s" s="2">
@@ -77335,13 +77313,13 @@
         <v>75</v>
       </c>
       <c r="AJ647" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK647" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL647" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM647" t="s" s="2">
         <v>75</v>
@@ -77352,7 +77330,7 @@
     </row>
     <row r="648" hidden="true">
       <c r="A648" t="s" s="2">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="B648" t="s" s="2">
         <v>287</v>
@@ -77464,7 +77442,7 @@
     </row>
     <row r="649" hidden="true">
       <c r="A649" t="s" s="2">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B649" t="s" s="2">
         <v>291</v>
@@ -77576,7 +77554,7 @@
     </row>
     <row r="650" hidden="true">
       <c r="A650" t="s" s="2">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="B650" t="s" s="2">
         <v>292</v>
@@ -77690,7 +77668,7 @@
     </row>
     <row r="651" hidden="true">
       <c r="A651" t="s" s="2">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="B651" t="s" s="2">
         <v>293</v>
@@ -77806,7 +77784,7 @@
     </row>
     <row r="652" hidden="true">
       <c r="A652" t="s" s="2">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="B652" t="s" s="2">
         <v>294</v>
@@ -77920,7 +77898,7 @@
     </row>
     <row r="653" hidden="true">
       <c r="A653" t="s" s="2">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="B653" t="s" s="2">
         <v>300</v>
@@ -78034,7 +78012,7 @@
     </row>
     <row r="654" hidden="true">
       <c r="A654" t="s" s="2">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="B654" t="s" s="2">
         <v>305</v>
@@ -78146,7 +78124,7 @@
     </row>
     <row r="655" hidden="true">
       <c r="A655" t="s" s="2">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="B655" t="s" s="2">
         <v>309</v>
@@ -78258,7 +78236,7 @@
     </row>
     <row r="656" hidden="true">
       <c r="A656" t="s" s="2">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>310</v>
@@ -78372,7 +78350,7 @@
     </row>
     <row r="657" hidden="true">
       <c r="A657" t="s" s="2">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>311</v>
@@ -78488,7 +78466,7 @@
     </row>
     <row r="658" hidden="true">
       <c r="A658" t="s" s="2">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>312</v>
@@ -78600,7 +78578,7 @@
     </row>
     <row r="659" hidden="true">
       <c r="A659" t="s" s="2">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>317</v>
@@ -78714,7 +78692,7 @@
     </row>
     <row r="660" hidden="true">
       <c r="A660" t="s" s="2">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>321</v>
@@ -78826,7 +78804,7 @@
     </row>
     <row r="661" hidden="true">
       <c r="A661" t="s" s="2">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>324</v>
@@ -78938,7 +78916,7 @@
     </row>
     <row r="662" hidden="true">
       <c r="A662" t="s" s="2">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>326</v>
@@ -79050,7 +79028,7 @@
     </row>
     <row r="663" hidden="true">
       <c r="A663" t="s" s="2">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>329</v>
@@ -79162,7 +79140,7 @@
     </row>
     <row r="664" hidden="true">
       <c r="A664" t="s" s="2">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>332</v>
@@ -79274,7 +79252,7 @@
     </row>
     <row r="665" hidden="true">
       <c r="A665" t="s" s="2">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>336</v>
@@ -79386,7 +79364,7 @@
     </row>
     <row r="666" hidden="true">
       <c r="A666" t="s" s="2">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>337</v>
@@ -79500,7 +79478,7 @@
     </row>
     <row r="667" hidden="true">
       <c r="A667" t="s" s="2">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>338</v>
@@ -79616,7 +79594,7 @@
     </row>
     <row r="668" hidden="true">
       <c r="A668" t="s" s="2">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>339</v>
@@ -79728,7 +79706,7 @@
     </row>
     <row r="669" hidden="true">
       <c r="A669" t="s" s="2">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>342</v>
@@ -79840,7 +79818,7 @@
     </row>
     <row r="670" hidden="true">
       <c r="A670" t="s" s="2">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>345</v>
@@ -79954,7 +79932,7 @@
     </row>
     <row r="671" hidden="true">
       <c r="A671" t="s" s="2">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>349</v>
@@ -80068,7 +80046,7 @@
     </row>
     <row r="672" hidden="true">
       <c r="A672" t="s" s="2">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>353</v>
@@ -80182,13 +80160,13 @@
     </row>
     <row r="673" hidden="true">
       <c r="A673" t="s" s="2">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="D673" t="s" s="2">
         <v>75</v>
@@ -80213,10 +80191,10 @@
         <v>248</v>
       </c>
       <c r="L673" t="s" s="2">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="M673" t="s" s="2">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="N673" s="2"/>
       <c r="O673" s="2"/>
@@ -80296,7 +80274,7 @@
     </row>
     <row r="674" hidden="true">
       <c r="A674" t="s" s="2">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>273</v>
@@ -80408,7 +80386,7 @@
     </row>
     <row r="675" hidden="true">
       <c r="A675" t="s" s="2">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>274</v>
@@ -80522,7 +80500,7 @@
     </row>
     <row r="676" hidden="true">
       <c r="A676" t="s" s="2">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>275</v>
@@ -80638,7 +80616,7 @@
     </row>
     <row r="677" hidden="true">
       <c r="A677" t="s" s="2">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>276</v>
@@ -80750,7 +80728,7 @@
     </row>
     <row r="678" hidden="true">
       <c r="A678" t="s" s="2">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>279</v>
@@ -80864,14 +80842,14 @@
     </row>
     <row r="679" hidden="true">
       <c r="A679" t="s" s="2">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E679" s="2"/>
       <c r="F679" t="s" s="2">
@@ -80890,16 +80868,16 @@
         <v>75</v>
       </c>
       <c r="K679" t="s" s="2">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="L679" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M679" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N679" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O679" s="2"/>
       <c r="P679" t="s" s="2">
@@ -80961,13 +80939,13 @@
         <v>75</v>
       </c>
       <c r="AJ679" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK679" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL679" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM679" t="s" s="2">
         <v>75</v>
@@ -80978,7 +80956,7 @@
     </row>
     <row r="680" hidden="true">
       <c r="A680" t="s" s="2">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>287</v>
@@ -81090,7 +81068,7 @@
     </row>
     <row r="681" hidden="true">
       <c r="A681" t="s" s="2">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>291</v>
@@ -81202,7 +81180,7 @@
     </row>
     <row r="682" hidden="true">
       <c r="A682" t="s" s="2">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>292</v>
@@ -81316,7 +81294,7 @@
     </row>
     <row r="683" hidden="true">
       <c r="A683" t="s" s="2">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>293</v>
@@ -81432,7 +81410,7 @@
     </row>
     <row r="684" hidden="true">
       <c r="A684" t="s" s="2">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B684" t="s" s="2">
         <v>294</v>
@@ -81546,7 +81524,7 @@
     </row>
     <row r="685" hidden="true">
       <c r="A685" t="s" s="2">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B685" t="s" s="2">
         <v>300</v>
@@ -81660,7 +81638,7 @@
     </row>
     <row r="686" hidden="true">
       <c r="A686" t="s" s="2">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>305</v>
@@ -81772,7 +81750,7 @@
     </row>
     <row r="687" hidden="true">
       <c r="A687" t="s" s="2">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>309</v>
@@ -81884,7 +81862,7 @@
     </row>
     <row r="688" hidden="true">
       <c r="A688" t="s" s="2">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>310</v>
@@ -81998,7 +81976,7 @@
     </row>
     <row r="689" hidden="true">
       <c r="A689" t="s" s="2">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>311</v>
@@ -82114,7 +82092,7 @@
     </row>
     <row r="690" hidden="true">
       <c r="A690" t="s" s="2">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>312</v>
@@ -82226,7 +82204,7 @@
     </row>
     <row r="691" hidden="true">
       <c r="A691" t="s" s="2">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>317</v>
@@ -82340,7 +82318,7 @@
     </row>
     <row r="692" hidden="true">
       <c r="A692" t="s" s="2">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>321</v>
@@ -82452,7 +82430,7 @@
     </row>
     <row r="693" hidden="true">
       <c r="A693" t="s" s="2">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>324</v>
@@ -82564,7 +82542,7 @@
     </row>
     <row r="694" hidden="true">
       <c r="A694" t="s" s="2">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>326</v>
@@ -82676,7 +82654,7 @@
     </row>
     <row r="695" hidden="true">
       <c r="A695" t="s" s="2">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>329</v>
@@ -82788,7 +82766,7 @@
     </row>
     <row r="696" hidden="true">
       <c r="A696" t="s" s="2">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>332</v>
@@ -82900,7 +82878,7 @@
     </row>
     <row r="697" hidden="true">
       <c r="A697" t="s" s="2">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>336</v>
@@ -83012,7 +82990,7 @@
     </row>
     <row r="698" hidden="true">
       <c r="A698" t="s" s="2">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B698" t="s" s="2">
         <v>337</v>
@@ -83126,7 +83104,7 @@
     </row>
     <row r="699" hidden="true">
       <c r="A699" t="s" s="2">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B699" t="s" s="2">
         <v>338</v>
@@ -83242,7 +83220,7 @@
     </row>
     <row r="700" hidden="true">
       <c r="A700" t="s" s="2">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="B700" t="s" s="2">
         <v>339</v>
@@ -83354,7 +83332,7 @@
     </row>
     <row r="701" hidden="true">
       <c r="A701" t="s" s="2">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="B701" t="s" s="2">
         <v>342</v>
@@ -83466,7 +83444,7 @@
     </row>
     <row r="702" hidden="true">
       <c r="A702" t="s" s="2">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B702" t="s" s="2">
         <v>345</v>
@@ -83580,7 +83558,7 @@
     </row>
     <row r="703" hidden="true">
       <c r="A703" t="s" s="2">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="B703" t="s" s="2">
         <v>349</v>
@@ -83694,7 +83672,7 @@
     </row>
     <row r="704" hidden="true">
       <c r="A704" t="s" s="2">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="B704" t="s" s="2">
         <v>353</v>
@@ -83808,13 +83786,13 @@
     </row>
     <row r="705" hidden="true">
       <c r="A705" t="s" s="2">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="B705" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D705" t="s" s="2">
         <v>75</v>
@@ -83839,10 +83817,10 @@
         <v>248</v>
       </c>
       <c r="L705" t="s" s="2">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="M705" t="s" s="2">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="N705" s="2"/>
       <c r="O705" s="2"/>
@@ -83922,7 +83900,7 @@
     </row>
     <row r="706" hidden="true">
       <c r="A706" t="s" s="2">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="B706" t="s" s="2">
         <v>273</v>
@@ -84034,7 +84012,7 @@
     </row>
     <row r="707" hidden="true">
       <c r="A707" t="s" s="2">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="B707" t="s" s="2">
         <v>274</v>
@@ -84148,7 +84126,7 @@
     </row>
     <row r="708" hidden="true">
       <c r="A708" t="s" s="2">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="B708" t="s" s="2">
         <v>275</v>
@@ -84264,7 +84242,7 @@
     </row>
     <row r="709" hidden="true">
       <c r="A709" t="s" s="2">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="B709" t="s" s="2">
         <v>276</v>
@@ -84376,7 +84354,7 @@
     </row>
     <row r="710" hidden="true">
       <c r="A710" t="s" s="2">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="B710" t="s" s="2">
         <v>279</v>
@@ -84490,14 +84468,14 @@
     </row>
     <row r="711" hidden="true">
       <c r="A711" t="s" s="2">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E711" s="2"/>
       <c r="F711" t="s" s="2">
@@ -84516,16 +84494,16 @@
         <v>75</v>
       </c>
       <c r="K711" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="L711" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" t="s" s="2">
@@ -84587,13 +84565,13 @@
         <v>75</v>
       </c>
       <c r="AJ711" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK711" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL711" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM711" t="s" s="2">
         <v>75</v>
@@ -84604,7 +84582,7 @@
     </row>
     <row r="712" hidden="true">
       <c r="A712" t="s" s="2">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>287</v>
@@ -84716,7 +84694,7 @@
     </row>
     <row r="713" hidden="true">
       <c r="A713" t="s" s="2">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>291</v>
@@ -84828,7 +84806,7 @@
     </row>
     <row r="714" hidden="true">
       <c r="A714" t="s" s="2">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>292</v>
@@ -84942,7 +84920,7 @@
     </row>
     <row r="715" hidden="true">
       <c r="A715" t="s" s="2">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>293</v>
@@ -85058,7 +85036,7 @@
     </row>
     <row r="716" hidden="true">
       <c r="A716" t="s" s="2">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>294</v>
@@ -85172,7 +85150,7 @@
     </row>
     <row r="717" hidden="true">
       <c r="A717" t="s" s="2">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>300</v>
@@ -85286,7 +85264,7 @@
     </row>
     <row r="718" hidden="true">
       <c r="A718" t="s" s="2">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>305</v>
@@ -85398,7 +85376,7 @@
     </row>
     <row r="719" hidden="true">
       <c r="A719" t="s" s="2">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>309</v>
@@ -85510,7 +85488,7 @@
     </row>
     <row r="720" hidden="true">
       <c r="A720" t="s" s="2">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>310</v>
@@ -85624,7 +85602,7 @@
     </row>
     <row r="721" hidden="true">
       <c r="A721" t="s" s="2">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>311</v>
@@ -85740,7 +85718,7 @@
     </row>
     <row r="722" hidden="true">
       <c r="A722" t="s" s="2">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>312</v>
@@ -85852,7 +85830,7 @@
     </row>
     <row r="723" hidden="true">
       <c r="A723" t="s" s="2">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>317</v>
@@ -85966,7 +85944,7 @@
     </row>
     <row r="724" hidden="true">
       <c r="A724" t="s" s="2">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>321</v>
@@ -86078,7 +86056,7 @@
     </row>
     <row r="725" hidden="true">
       <c r="A725" t="s" s="2">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>324</v>
@@ -86190,7 +86168,7 @@
     </row>
     <row r="726" hidden="true">
       <c r="A726" t="s" s="2">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="B726" t="s" s="2">
         <v>326</v>
@@ -86302,7 +86280,7 @@
     </row>
     <row r="727" hidden="true">
       <c r="A727" t="s" s="2">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="B727" t="s" s="2">
         <v>329</v>
@@ -86414,7 +86392,7 @@
     </row>
     <row r="728" hidden="true">
       <c r="A728" t="s" s="2">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>332</v>
@@ -86526,7 +86504,7 @@
     </row>
     <row r="729" hidden="true">
       <c r="A729" t="s" s="2">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="B729" t="s" s="2">
         <v>336</v>
@@ -86638,7 +86616,7 @@
     </row>
     <row r="730" hidden="true">
       <c r="A730" t="s" s="2">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="B730" t="s" s="2">
         <v>337</v>
@@ -86752,7 +86730,7 @@
     </row>
     <row r="731" hidden="true">
       <c r="A731" t="s" s="2">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="B731" t="s" s="2">
         <v>338</v>
@@ -86868,7 +86846,7 @@
     </row>
     <row r="732" hidden="true">
       <c r="A732" t="s" s="2">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B732" t="s" s="2">
         <v>339</v>
@@ -86980,7 +86958,7 @@
     </row>
     <row r="733" hidden="true">
       <c r="A733" t="s" s="2">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="B733" t="s" s="2">
         <v>342</v>
@@ -87092,7 +87070,7 @@
     </row>
     <row r="734" hidden="true">
       <c r="A734" t="s" s="2">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B734" t="s" s="2">
         <v>345</v>
@@ -87206,7 +87184,7 @@
     </row>
     <row r="735" hidden="true">
       <c r="A735" t="s" s="2">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="B735" t="s" s="2">
         <v>349</v>
@@ -87320,7 +87298,7 @@
     </row>
     <row r="736" hidden="true">
       <c r="A736" t="s" s="2">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="B736" t="s" s="2">
         <v>353</v>
@@ -87434,13 +87412,13 @@
     </row>
     <row r="737" hidden="true">
       <c r="A737" t="s" s="2">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="B737" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C737" t="s" s="2">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="D737" t="s" s="2">
         <v>75</v>
@@ -87465,10 +87443,10 @@
         <v>248</v>
       </c>
       <c r="L737" t="s" s="2">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="M737" t="s" s="2">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="N737" s="2"/>
       <c r="O737" s="2"/>
@@ -87548,7 +87526,7 @@
     </row>
     <row r="738" hidden="true">
       <c r="A738" t="s" s="2">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="B738" t="s" s="2">
         <v>273</v>
@@ -87660,7 +87638,7 @@
     </row>
     <row r="739" hidden="true">
       <c r="A739" t="s" s="2">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="B739" t="s" s="2">
         <v>274</v>
@@ -87774,7 +87752,7 @@
     </row>
     <row r="740" hidden="true">
       <c r="A740" t="s" s="2">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="B740" t="s" s="2">
         <v>275</v>
@@ -87890,7 +87868,7 @@
     </row>
     <row r="741" hidden="true">
       <c r="A741" t="s" s="2">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="B741" t="s" s="2">
         <v>276</v>
@@ -88002,7 +87980,7 @@
     </row>
     <row r="742" hidden="true">
       <c r="A742" t="s" s="2">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="B742" t="s" s="2">
         <v>279</v>
@@ -88116,14 +88094,14 @@
     </row>
     <row r="743" hidden="true">
       <c r="A743" t="s" s="2">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="B743" t="s" s="2">
         <v>283</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E743" s="2"/>
       <c r="F743" t="s" s="2">
@@ -88142,16 +88120,16 @@
         <v>75</v>
       </c>
       <c r="K743" t="s" s="2">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="L743" t="s" s="2">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M743" t="s" s="2">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N743" t="s" s="2">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="O743" s="2"/>
       <c r="P743" t="s" s="2">
@@ -88213,13 +88191,13 @@
         <v>75</v>
       </c>
       <c r="AJ743" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK743" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL743" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM743" t="s" s="2">
         <v>75</v>
@@ -88230,7 +88208,7 @@
     </row>
     <row r="744" hidden="true">
       <c r="A744" t="s" s="2">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="B744" t="s" s="2">
         <v>287</v>
@@ -88342,7 +88320,7 @@
     </row>
     <row r="745" hidden="true">
       <c r="A745" t="s" s="2">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="B745" t="s" s="2">
         <v>291</v>
@@ -88454,7 +88432,7 @@
     </row>
     <row r="746" hidden="true">
       <c r="A746" t="s" s="2">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B746" t="s" s="2">
         <v>292</v>
@@ -88568,7 +88546,7 @@
     </row>
     <row r="747" hidden="true">
       <c r="A747" t="s" s="2">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B747" t="s" s="2">
         <v>293</v>
@@ -88684,7 +88662,7 @@
     </row>
     <row r="748" hidden="true">
       <c r="A748" t="s" s="2">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="B748" t="s" s="2">
         <v>294</v>
@@ -88798,7 +88776,7 @@
     </row>
     <row r="749" hidden="true">
       <c r="A749" t="s" s="2">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="B749" t="s" s="2">
         <v>300</v>
@@ -88912,7 +88890,7 @@
     </row>
     <row r="750" hidden="true">
       <c r="A750" t="s" s="2">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B750" t="s" s="2">
         <v>305</v>
@@ -89024,7 +89002,7 @@
     </row>
     <row r="751" hidden="true">
       <c r="A751" t="s" s="2">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B751" t="s" s="2">
         <v>309</v>
@@ -89136,7 +89114,7 @@
     </row>
     <row r="752" hidden="true">
       <c r="A752" t="s" s="2">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B752" t="s" s="2">
         <v>310</v>
@@ -89250,7 +89228,7 @@
     </row>
     <row r="753" hidden="true">
       <c r="A753" t="s" s="2">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B753" t="s" s="2">
         <v>311</v>
@@ -89366,7 +89344,7 @@
     </row>
     <row r="754" hidden="true">
       <c r="A754" t="s" s="2">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B754" t="s" s="2">
         <v>312</v>
@@ -89478,7 +89456,7 @@
     </row>
     <row r="755" hidden="true">
       <c r="A755" t="s" s="2">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B755" t="s" s="2">
         <v>317</v>
@@ -89592,7 +89570,7 @@
     </row>
     <row r="756" hidden="true">
       <c r="A756" t="s" s="2">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B756" t="s" s="2">
         <v>321</v>
@@ -89704,7 +89682,7 @@
     </row>
     <row r="757" hidden="true">
       <c r="A757" t="s" s="2">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B757" t="s" s="2">
         <v>324</v>
@@ -89816,7 +89794,7 @@
     </row>
     <row r="758" hidden="true">
       <c r="A758" t="s" s="2">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="B758" t="s" s="2">
         <v>326</v>
@@ -89928,7 +89906,7 @@
     </row>
     <row r="759" hidden="true">
       <c r="A759" t="s" s="2">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="B759" t="s" s="2">
         <v>329</v>
@@ -90040,7 +90018,7 @@
     </row>
     <row r="760" hidden="true">
       <c r="A760" t="s" s="2">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B760" t="s" s="2">
         <v>332</v>
@@ -90152,7 +90130,7 @@
     </row>
     <row r="761" hidden="true">
       <c r="A761" t="s" s="2">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B761" t="s" s="2">
         <v>336</v>
@@ -90264,7 +90242,7 @@
     </row>
     <row r="762" hidden="true">
       <c r="A762" t="s" s="2">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B762" t="s" s="2">
         <v>337</v>
@@ -90378,7 +90356,7 @@
     </row>
     <row r="763" hidden="true">
       <c r="A763" t="s" s="2">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B763" t="s" s="2">
         <v>338</v>
@@ -90494,7 +90472,7 @@
     </row>
     <row r="764" hidden="true">
       <c r="A764" t="s" s="2">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B764" t="s" s="2">
         <v>339</v>
@@ -90606,7 +90584,7 @@
     </row>
     <row r="765" hidden="true">
       <c r="A765" t="s" s="2">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B765" t="s" s="2">
         <v>342</v>
@@ -90718,7 +90696,7 @@
     </row>
     <row r="766" hidden="true">
       <c r="A766" t="s" s="2">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B766" t="s" s="2">
         <v>345</v>
@@ -90832,7 +90810,7 @@
     </row>
     <row r="767" hidden="true">
       <c r="A767" t="s" s="2">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B767" t="s" s="2">
         <v>349</v>
@@ -90946,7 +90924,7 @@
     </row>
     <row r="768" hidden="true">
       <c r="A768" t="s" s="2">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B768" t="s" s="2">
         <v>353</v>
@@ -91060,10 +91038,10 @@
     </row>
     <row r="769" hidden="true">
       <c r="A769" t="s" s="2">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B769" t="s" s="2">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" t="s" s="2">
@@ -91086,19 +91064,19 @@
         <v>85</v>
       </c>
       <c r="K769" t="s" s="2">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="L769" t="s" s="2">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="M769" t="s" s="2">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="N769" t="s" s="2">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="O769" t="s" s="2">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="P769" t="s" s="2">
         <v>75</v>
@@ -91147,7 +91125,7 @@
         <v>75</v>
       </c>
       <c r="AF769" t="s" s="2">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="AG769" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
+++ b/docs/StructureDefinition-ms-bundle-hla-separate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28601" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28601" uniqueCount="1227">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2588,12 +2588,6 @@
   </si>
   <si>
     <t>Genotype</t>
-  </si>
-  <si>
-    <t>A finding that a patient has a specific genotype.</t>
-  </si>
-  <si>
-    <t>Defines those properties that are common for all findings of genetic characteristics - namely genotype, haplotype and any of the types of variants.</t>
   </si>
   <si>
     <t>Bundle.entry:hla-a.search</t>
@@ -55612,7 +55606,7 @@
         <v>84</v>
       </c>
       <c r="H455" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I455" t="s" s="2">
         <v>75</v>
@@ -55627,10 +55621,10 @@
         <v>835</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
@@ -55709,7 +55703,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>287</v>
@@ -55821,7 +55815,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>291</v>
@@ -55933,7 +55927,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>292</v>
@@ -56047,7 +56041,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>293</v>
@@ -56163,7 +56157,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>294</v>
@@ -56277,7 +56271,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>300</v>
@@ -56391,7 +56385,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>305</v>
@@ -56503,7 +56497,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>309</v>
@@ -56615,7 +56609,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>310</v>
@@ -56729,7 +56723,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>311</v>
@@ -56845,7 +56839,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>312</v>
@@ -56957,7 +56951,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>317</v>
@@ -57071,7 +57065,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>321</v>
@@ -57183,7 +57177,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>324</v>
@@ -57295,7 +57289,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>326</v>
@@ -57407,7 +57401,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>329</v>
@@ -57519,7 +57513,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>332</v>
@@ -57631,7 +57625,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>336</v>
@@ -57743,7 +57737,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>337</v>
@@ -57857,7 +57851,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>338</v>
@@ -57973,7 +57967,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>339</v>
@@ -58085,7 +58079,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>342</v>
@@ -58197,7 +58191,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>345</v>
@@ -58311,7 +58305,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>349</v>
@@ -58425,7 +58419,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>353</v>
@@ -58539,13 +58533,13 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D481" t="s" s="2">
         <v>75</v>
@@ -58570,10 +58564,10 @@
         <v>248</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
@@ -58653,7 +58647,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>273</v>
@@ -58765,7 +58759,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>274</v>
@@ -58879,7 +58873,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>275</v>
@@ -58995,7 +58989,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>276</v>
@@ -59107,7 +59101,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>279</v>
@@ -59221,7 +59215,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>283</v>
@@ -59238,7 +59232,7 @@
         <v>84</v>
       </c>
       <c r="H487" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I487" t="s" s="2">
         <v>75</v>
@@ -59247,16 +59241,16 @@
         <v>75</v>
       </c>
       <c r="K487" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="L487" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N487" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O487" s="2"/>
       <c r="P487" t="s" s="2">
@@ -59335,7 +59329,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>287</v>
@@ -59447,7 +59441,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>291</v>
@@ -59559,7 +59553,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>292</v>
@@ -59673,7 +59667,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>293</v>
@@ -59789,7 +59783,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>294</v>
@@ -59903,7 +59897,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>300</v>
@@ -60017,7 +60011,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>305</v>
@@ -60129,7 +60123,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>309</v>
@@ -60241,7 +60235,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>310</v>
@@ -60355,7 +60349,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>311</v>
@@ -60471,7 +60465,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>312</v>
@@ -60583,7 +60577,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>317</v>
@@ -60697,7 +60691,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>321</v>
@@ -60809,7 +60803,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>324</v>
@@ -60921,7 +60915,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>326</v>
@@ -61033,7 +61027,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>329</v>
@@ -61145,7 +61139,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>332</v>
@@ -61257,7 +61251,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>336</v>
@@ -61369,7 +61363,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>337</v>
@@ -61483,7 +61477,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>338</v>
@@ -61599,7 +61593,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>339</v>
@@ -61711,7 +61705,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>342</v>
@@ -61823,7 +61817,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>345</v>
@@ -61937,7 +61931,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>349</v>
@@ -62051,7 +62045,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>353</v>
@@ -62165,13 +62159,13 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D513" t="s" s="2">
         <v>75</v>
@@ -62196,10 +62190,10 @@
         <v>248</v>
       </c>
       <c r="L513" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="M513" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N513" s="2"/>
       <c r="O513" s="2"/>
@@ -62279,7 +62273,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>273</v>
@@ -62391,7 +62385,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>274</v>
@@ -62505,7 +62499,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>275</v>
@@ -62621,7 +62615,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>276</v>
@@ -62733,7 +62727,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>279</v>
@@ -62847,7 +62841,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>283</v>
@@ -62864,7 +62858,7 @@
         <v>84</v>
       </c>
       <c r="H519" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I519" t="s" s="2">
         <v>75</v>
@@ -62873,16 +62867,16 @@
         <v>75</v>
       </c>
       <c r="K519" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="L519" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M519" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O519" s="2"/>
       <c r="P519" t="s" s="2">
@@ -62961,7 +62955,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>287</v>
@@ -63073,7 +63067,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>291</v>
@@ -63185,7 +63179,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>292</v>
@@ -63299,7 +63293,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>293</v>
@@ -63415,7 +63409,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>294</v>
@@ -63529,7 +63523,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>300</v>
@@ -63643,7 +63637,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>305</v>
@@ -63755,7 +63749,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>309</v>
@@ -63867,7 +63861,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>310</v>
@@ -63981,7 +63975,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>311</v>
@@ -64097,7 +64091,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>312</v>
@@ -64209,7 +64203,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>317</v>
@@ -64323,7 +64317,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>321</v>
@@ -64435,7 +64429,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>324</v>
@@ -64547,7 +64541,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>326</v>
@@ -64659,7 +64653,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>329</v>
@@ -64771,7 +64765,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>332</v>
@@ -64883,7 +64877,7 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>336</v>
@@ -64995,7 +64989,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>337</v>
@@ -65109,7 +65103,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>338</v>
@@ -65225,7 +65219,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>339</v>
@@ -65337,7 +65331,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>342</v>
@@ -65449,7 +65443,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>345</v>
@@ -65563,7 +65557,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>349</v>
@@ -65677,7 +65671,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>353</v>
@@ -65791,13 +65785,13 @@
     </row>
     <row r="545" hidden="true">
       <c r="A545" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D545" t="s" s="2">
         <v>75</v>
@@ -65822,10 +65816,10 @@
         <v>248</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="N545" s="2"/>
       <c r="O545" s="2"/>
@@ -65905,7 +65899,7 @@
     </row>
     <row r="546" hidden="true">
       <c r="A546" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>273</v>
@@ -66017,7 +66011,7 @@
     </row>
     <row r="547" hidden="true">
       <c r="A547" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>274</v>
@@ -66131,7 +66125,7 @@
     </row>
     <row r="548" hidden="true">
       <c r="A548" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>275</v>
@@ -66247,7 +66241,7 @@
     </row>
     <row r="549" hidden="true">
       <c r="A549" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>276</v>
@@ -66359,7 +66353,7 @@
     </row>
     <row r="550" hidden="true">
       <c r="A550" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>279</v>
@@ -66473,7 +66467,7 @@
     </row>
     <row r="551" hidden="true">
       <c r="A551" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>283</v>
@@ -66490,7 +66484,7 @@
         <v>84</v>
       </c>
       <c r="H551" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I551" t="s" s="2">
         <v>75</v>
@@ -66499,16 +66493,16 @@
         <v>75</v>
       </c>
       <c r="K551" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L551" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O551" s="2"/>
       <c r="P551" t="s" s="2">
@@ -66587,7 +66581,7 @@
     </row>
     <row r="552" hidden="true">
       <c r="A552" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>287</v>
@@ -66699,7 +66693,7 @@
     </row>
     <row r="553" hidden="true">
       <c r="A553" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>291</v>
@@ -66811,7 +66805,7 @@
     </row>
     <row r="554" hidden="true">
       <c r="A554" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>292</v>
@@ -66925,7 +66919,7 @@
     </row>
     <row r="555" hidden="true">
       <c r="A555" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>293</v>
@@ -67041,7 +67035,7 @@
     </row>
     <row r="556" hidden="true">
       <c r="A556" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>294</v>
@@ -67155,7 +67149,7 @@
     </row>
     <row r="557" hidden="true">
       <c r="A557" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>300</v>
@@ -67269,7 +67263,7 @@
     </row>
     <row r="558" hidden="true">
       <c r="A558" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>305</v>
@@ -67381,7 +67375,7 @@
     </row>
     <row r="559" hidden="true">
       <c r="A559" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>309</v>
@@ -67493,7 +67487,7 @@
     </row>
     <row r="560" hidden="true">
       <c r="A560" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>310</v>
@@ -67607,7 +67601,7 @@
     </row>
     <row r="561" hidden="true">
       <c r="A561" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>311</v>
@@ -67723,7 +67717,7 @@
     </row>
     <row r="562" hidden="true">
       <c r="A562" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>312</v>
@@ -67835,7 +67829,7 @@
     </row>
     <row r="563" hidden="true">
       <c r="A563" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>317</v>
@@ -67949,7 +67943,7 @@
     </row>
     <row r="564" hidden="true">
       <c r="A564" t="s" s="2">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>321</v>
@@ -68061,7 +68055,7 @@
     </row>
     <row r="565" hidden="true">
       <c r="A565" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>324</v>
@@ -68173,7 +68167,7 @@
     </row>
     <row r="566" hidden="true">
       <c r="A566" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>326</v>
@@ -68285,7 +68279,7 @@
     </row>
     <row r="567" hidden="true">
       <c r="A567" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>329</v>
@@ -68397,7 +68391,7 @@
     </row>
     <row r="568" hidden="true">
       <c r="A568" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>332</v>
@@ -68509,7 +68503,7 @@
     </row>
     <row r="569" hidden="true">
       <c r="A569" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B569" t="s" s="2">
         <v>336</v>
@@ -68621,7 +68615,7 @@
     </row>
     <row r="570" hidden="true">
       <c r="A570" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B570" t="s" s="2">
         <v>337</v>
@@ -68735,7 +68729,7 @@
     </row>
     <row r="571" hidden="true">
       <c r="A571" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B571" t="s" s="2">
         <v>338</v>
@@ -68851,7 +68845,7 @@
     </row>
     <row r="572" hidden="true">
       <c r="A572" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B572" t="s" s="2">
         <v>339</v>
@@ -68963,7 +68957,7 @@
     </row>
     <row r="573" hidden="true">
       <c r="A573" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B573" t="s" s="2">
         <v>342</v>
@@ -69075,7 +69069,7 @@
     </row>
     <row r="574" hidden="true">
       <c r="A574" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B574" t="s" s="2">
         <v>345</v>
@@ -69189,7 +69183,7 @@
     </row>
     <row r="575" hidden="true">
       <c r="A575" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B575" t="s" s="2">
         <v>349</v>
@@ -69303,7 +69297,7 @@
     </row>
     <row r="576" hidden="true">
       <c r="A576" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B576" t="s" s="2">
         <v>353</v>
@@ -69417,13 +69411,13 @@
     </row>
     <row r="577" hidden="true">
       <c r="A577" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B577" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D577" t="s" s="2">
         <v>75</v>
@@ -69448,10 +69442,10 @@
         <v>248</v>
       </c>
       <c r="L577" t="s" s="2">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="N577" s="2"/>
       <c r="O577" s="2"/>
@@ -69531,7 +69525,7 @@
     </row>
     <row r="578" hidden="true">
       <c r="A578" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B578" t="s" s="2">
         <v>273</v>
@@ -69643,7 +69637,7 @@
     </row>
     <row r="579" hidden="true">
       <c r="A579" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>274</v>
@@ -69757,7 +69751,7 @@
     </row>
     <row r="580" hidden="true">
       <c r="A580" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>275</v>
@@ -69873,7 +69867,7 @@
     </row>
     <row r="581" hidden="true">
       <c r="A581" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>276</v>
@@ -69985,7 +69979,7 @@
     </row>
     <row r="582" hidden="true">
       <c r="A582" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>279</v>
@@ -70099,7 +70093,7 @@
     </row>
     <row r="583" hidden="true">
       <c r="A583" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>283</v>
@@ -70116,7 +70110,7 @@
         <v>84</v>
       </c>
       <c r="H583" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I583" t="s" s="2">
         <v>75</v>
@@ -70125,16 +70119,16 @@
         <v>75</v>
       </c>
       <c r="K583" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L583" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" t="s" s="2">
@@ -70213,7 +70207,7 @@
     </row>
     <row r="584" hidden="true">
       <c r="A584" t="s" s="2">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>287</v>
@@ -70325,7 +70319,7 @@
     </row>
     <row r="585" hidden="true">
       <c r="A585" t="s" s="2">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>291</v>
@@ -70437,7 +70431,7 @@
     </row>
     <row r="586" hidden="true">
       <c r="A586" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>292</v>
@@ -70551,7 +70545,7 @@
     </row>
     <row r="587" hidden="true">
       <c r="A587" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B587" t="s" s="2">
         <v>293</v>
@@ -70667,7 +70661,7 @@
     </row>
     <row r="588" hidden="true">
       <c r="A588" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B588" t="s" s="2">
         <v>294</v>
@@ -70781,7 +70775,7 @@
     </row>
     <row r="589" hidden="true">
       <c r="A589" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B589" t="s" s="2">
         <v>300</v>
@@ -70895,7 +70889,7 @@
     </row>
     <row r="590" hidden="true">
       <c r="A590" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B590" t="s" s="2">
         <v>305</v>
@@ -71007,7 +71001,7 @@
     </row>
     <row r="591" hidden="true">
       <c r="A591" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B591" t="s" s="2">
         <v>309</v>
@@ -71119,7 +71113,7 @@
     </row>
     <row r="592" hidden="true">
       <c r="A592" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>310</v>
@@ -71233,7 +71227,7 @@
     </row>
     <row r="593" hidden="true">
       <c r="A593" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>311</v>
@@ -71349,7 +71343,7 @@
     </row>
     <row r="594" hidden="true">
       <c r="A594" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>312</v>
@@ -71461,7 +71455,7 @@
     </row>
     <row r="595" hidden="true">
       <c r="A595" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>317</v>
@@ -71575,7 +71569,7 @@
     </row>
     <row r="596" hidden="true">
       <c r="A596" t="s" s="2">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>321</v>
@@ -71687,7 +71681,7 @@
     </row>
     <row r="597" hidden="true">
       <c r="A597" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>324</v>
@@ -71799,7 +71793,7 @@
     </row>
     <row r="598" hidden="true">
       <c r="A598" t="s" s="2">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>326</v>
@@ -71911,7 +71905,7 @@
     </row>
     <row r="599" hidden="true">
       <c r="A599" t="s" s="2">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>329</v>
@@ -72023,7 +72017,7 @@
     </row>
     <row r="600" hidden="true">
       <c r="A600" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>332</v>
@@ -72135,7 +72129,7 @@
     </row>
     <row r="601" hidden="true">
       <c r="A601" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>336</v>
@@ -72247,7 +72241,7 @@
     </row>
     <row r="602" hidden="true">
       <c r="A602" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>337</v>
@@ -72361,7 +72355,7 @@
     </row>
     <row r="603" hidden="true">
       <c r="A603" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>338</v>
@@ -72477,7 +72471,7 @@
     </row>
     <row r="604" hidden="true">
       <c r="A604" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>339</v>
@@ -72589,7 +72583,7 @@
     </row>
     <row r="605" hidden="true">
       <c r="A605" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>342</v>
@@ -72701,7 +72695,7 @@
     </row>
     <row r="606" hidden="true">
       <c r="A606" t="s" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>345</v>
@@ -72815,7 +72809,7 @@
     </row>
     <row r="607" hidden="true">
       <c r="A607" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>349</v>
@@ -72929,7 +72923,7 @@
     </row>
     <row r="608" hidden="true">
       <c r="A608" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>353</v>
@@ -73043,13 +73037,13 @@
     </row>
     <row r="609" hidden="true">
       <c r="A609" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D609" t="s" s="2">
         <v>75</v>
@@ -73074,10 +73068,10 @@
         <v>248</v>
       </c>
       <c r="L609" t="s" s="2">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M609" t="s" s="2">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="N609" s="2"/>
       <c r="O609" s="2"/>
@@ -73157,7 +73151,7 @@
     </row>
     <row r="610" hidden="true">
       <c r="A610" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>273</v>
@@ -73269,7 +73263,7 @@
     </row>
     <row r="611" hidden="true">
       <c r="A611" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>274</v>
@@ -73383,7 +73377,7 @@
     </row>
     <row r="612" hidden="true">
       <c r="A612" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>275</v>
@@ -73499,7 +73493,7 @@
     </row>
     <row r="613" hidden="true">
       <c r="A613" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>276</v>
@@ -73611,7 +73605,7 @@
     </row>
     <row r="614" hidden="true">
       <c r="A614" t="s" s="2">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>279</v>
@@ -73725,7 +73719,7 @@
     </row>
     <row r="615" hidden="true">
       <c r="A615" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>283</v>
@@ -73742,7 +73736,7 @@
         <v>84</v>
       </c>
       <c r="H615" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I615" t="s" s="2">
         <v>75</v>
@@ -73751,16 +73745,16 @@
         <v>75</v>
       </c>
       <c r="K615" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L615" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M615" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N615" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O615" s="2"/>
       <c r="P615" t="s" s="2">
@@ -73839,7 +73833,7 @@
     </row>
     <row r="616" hidden="true">
       <c r="A616" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>287</v>
@@ -73951,7 +73945,7 @@
     </row>
     <row r="617" hidden="true">
       <c r="A617" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>291</v>
@@ -74063,7 +74057,7 @@
     </row>
     <row r="618" hidden="true">
       <c r="A618" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>292</v>
@@ -74177,7 +74171,7 @@
     </row>
     <row r="619" hidden="true">
       <c r="A619" t="s" s="2">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>293</v>
@@ -74293,7 +74287,7 @@
     </row>
     <row r="620" hidden="true">
       <c r="A620" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>294</v>
@@ -74407,7 +74401,7 @@
     </row>
     <row r="621" hidden="true">
       <c r="A621" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B621" t="s" s="2">
         <v>300</v>
@@ -74521,7 +74515,7 @@
     </row>
     <row r="622" hidden="true">
       <c r="A622" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B622" t="s" s="2">
         <v>305</v>
@@ -74633,7 +74627,7 @@
     </row>
     <row r="623" hidden="true">
       <c r="A623" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B623" t="s" s="2">
         <v>309</v>
@@ -74745,7 +74739,7 @@
     </row>
     <row r="624" hidden="true">
       <c r="A624" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B624" t="s" s="2">
         <v>310</v>
@@ -74859,7 +74853,7 @@
     </row>
     <row r="625" hidden="true">
       <c r="A625" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B625" t="s" s="2">
         <v>311</v>
@@ -74975,7 +74969,7 @@
     </row>
     <row r="626" hidden="true">
       <c r="A626" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B626" t="s" s="2">
         <v>312</v>
@@ -75087,7 +75081,7 @@
     </row>
     <row r="627" hidden="true">
       <c r="A627" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B627" t="s" s="2">
         <v>317</v>
@@ -75201,7 +75195,7 @@
     </row>
     <row r="628" hidden="true">
       <c r="A628" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B628" t="s" s="2">
         <v>321</v>
@@ -75313,7 +75307,7 @@
     </row>
     <row r="629" hidden="true">
       <c r="A629" t="s" s="2">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B629" t="s" s="2">
         <v>324</v>
@@ -75425,7 +75419,7 @@
     </row>
     <row r="630" hidden="true">
       <c r="A630" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B630" t="s" s="2">
         <v>326</v>
@@ -75537,7 +75531,7 @@
     </row>
     <row r="631" hidden="true">
       <c r="A631" t="s" s="2">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B631" t="s" s="2">
         <v>329</v>
@@ -75649,7 +75643,7 @@
     </row>
     <row r="632" hidden="true">
       <c r="A632" t="s" s="2">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B632" t="s" s="2">
         <v>332</v>
@@ -75761,7 +75755,7 @@
     </row>
     <row r="633" hidden="true">
       <c r="A633" t="s" s="2">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B633" t="s" s="2">
         <v>336</v>
@@ -75873,7 +75867,7 @@
     </row>
     <row r="634" hidden="true">
       <c r="A634" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B634" t="s" s="2">
         <v>337</v>
@@ -75987,7 +75981,7 @@
     </row>
     <row r="635" hidden="true">
       <c r="A635" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B635" t="s" s="2">
         <v>338</v>
@@ -76103,7 +76097,7 @@
     </row>
     <row r="636" hidden="true">
       <c r="A636" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B636" t="s" s="2">
         <v>339</v>
@@ -76215,7 +76209,7 @@
     </row>
     <row r="637" hidden="true">
       <c r="A637" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B637" t="s" s="2">
         <v>342</v>
@@ -76327,7 +76321,7 @@
     </row>
     <row r="638" hidden="true">
       <c r="A638" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B638" t="s" s="2">
         <v>345</v>
@@ -76441,7 +76435,7 @@
     </row>
     <row r="639" hidden="true">
       <c r="A639" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B639" t="s" s="2">
         <v>349</v>
@@ -76555,7 +76549,7 @@
     </row>
     <row r="640" hidden="true">
       <c r="A640" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B640" t="s" s="2">
         <v>353</v>
@@ -76669,13 +76663,13 @@
     </row>
     <row r="641" hidden="true">
       <c r="A641" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B641" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D641" t="s" s="2">
         <v>75</v>
@@ -76700,10 +76694,10 @@
         <v>248</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="N641" s="2"/>
       <c r="O641" s="2"/>
@@ -76783,7 +76777,7 @@
     </row>
     <row r="642" hidden="true">
       <c r="A642" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B642" t="s" s="2">
         <v>273</v>
@@ -76895,7 +76889,7 @@
     </row>
     <row r="643" hidden="true">
       <c r="A643" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B643" t="s" s="2">
         <v>274</v>
@@ -77009,7 +77003,7 @@
     </row>
     <row r="644" hidden="true">
       <c r="A644" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B644" t="s" s="2">
         <v>275</v>
@@ -77125,7 +77119,7 @@
     </row>
     <row r="645" hidden="true">
       <c r="A645" t="s" s="2">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B645" t="s" s="2">
         <v>276</v>
@@ -77237,7 +77231,7 @@
     </row>
     <row r="646" hidden="true">
       <c r="A646" t="s" s="2">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B646" t="s" s="2">
         <v>279</v>
@@ -77351,7 +77345,7 @@
     </row>
     <row r="647" hidden="true">
       <c r="A647" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B647" t="s" s="2">
         <v>283</v>
@@ -77368,7 +77362,7 @@
         <v>84</v>
       </c>
       <c r="H647" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I647" t="s" s="2">
         <v>75</v>
@@ -77377,16 +77371,16 @@
         <v>75</v>
       </c>
       <c r="K647" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="L647" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M647" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N647" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O647" s="2"/>
       <c r="P647" t="s" s="2">
@@ -77465,7 +77459,7 @@
     </row>
     <row r="648" hidden="true">
       <c r="A648" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B648" t="s" s="2">
         <v>287</v>
@@ -77577,7 +77571,7 @@
     </row>
     <row r="649" hidden="true">
       <c r="A649" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B649" t="s" s="2">
         <v>291</v>
@@ -77689,7 +77683,7 @@
     </row>
     <row r="650" hidden="true">
       <c r="A650" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B650" t="s" s="2">
         <v>292</v>
@@ -77803,7 +77797,7 @@
     </row>
     <row r="651" hidden="true">
       <c r="A651" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B651" t="s" s="2">
         <v>293</v>
@@ -77919,7 +77913,7 @@
     </row>
     <row r="652" hidden="true">
       <c r="A652" t="s" s="2">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B652" t="s" s="2">
         <v>294</v>
@@ -78033,7 +78027,7 @@
     </row>
     <row r="653" hidden="true">
       <c r="A653" t="s" s="2">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B653" t="s" s="2">
         <v>300</v>
@@ -78147,7 +78141,7 @@
     </row>
     <row r="654" hidden="true">
       <c r="A654" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B654" t="s" s="2">
         <v>305</v>
@@ -78259,7 +78253,7 @@
     </row>
     <row r="655" hidden="true">
       <c r="A655" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B655" t="s" s="2">
         <v>309</v>
@@ -78371,7 +78365,7 @@
     </row>
     <row r="656" hidden="true">
       <c r="A656" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>310</v>
@@ -78485,7 +78479,7 @@
     </row>
     <row r="657" hidden="true">
       <c r="A657" t="s" s="2">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>311</v>
@@ -78601,7 +78595,7 @@
     </row>
     <row r="658" hidden="true">
       <c r="A658" t="s" s="2">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>312</v>
@@ -78713,7 +78707,7 @@
     </row>
     <row r="659" hidden="true">
       <c r="A659" t="s" s="2">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>317</v>
@@ -78827,7 +78821,7 @@
     </row>
     <row r="660" hidden="true">
       <c r="A660" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>321</v>
@@ -78939,7 +78933,7 @@
     </row>
     <row r="661" hidden="true">
       <c r="A661" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>324</v>
@@ -79051,7 +79045,7 @@
     </row>
     <row r="662" hidden="true">
       <c r="A662" t="s" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>326</v>
@@ -79163,7 +79157,7 @@
     </row>
     <row r="663" hidden="true">
       <c r="A663" t="s" s="2">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>329</v>
@@ -79275,7 +79269,7 @@
     </row>
     <row r="664" hidden="true">
       <c r="A664" t="s" s="2">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>332</v>
@@ -79387,7 +79381,7 @@
     </row>
     <row r="665" hidden="true">
       <c r="A665" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>336</v>
@@ -79499,7 +79493,7 @@
     </row>
     <row r="666" hidden="true">
       <c r="A666" t="s" s="2">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>337</v>
@@ -79613,7 +79607,7 @@
     </row>
     <row r="667" hidden="true">
       <c r="A667" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>338</v>
@@ -79729,7 +79723,7 @@
     </row>
     <row r="668" hidden="true">
       <c r="A668" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>339</v>
@@ -79841,7 +79835,7 @@
     </row>
     <row r="669" hidden="true">
       <c r="A669" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>342</v>
@@ -79953,7 +79947,7 @@
     </row>
     <row r="670" hidden="true">
       <c r="A670" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>345</v>
@@ -80067,7 +80061,7 @@
     </row>
     <row r="671" hidden="true">
       <c r="A671" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>349</v>
@@ -80181,7 +80175,7 @@
     </row>
     <row r="672" hidden="true">
       <c r="A672" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>353</v>
@@ -80295,13 +80289,13 @@
     </row>
     <row r="673" hidden="true">
       <c r="A673" t="s" s="2">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D673" t="s" s="2">
         <v>75</v>
@@ -80326,10 +80320,10 @@
         <v>248</v>
       </c>
       <c r="L673" t="s" s="2">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="M673" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="N673" s="2"/>
       <c r="O673" s="2"/>
@@ -80409,7 +80403,7 @@
     </row>
     <row r="674" hidden="true">
       <c r="A674" t="s" s="2">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>273</v>
@@ -80521,7 +80515,7 @@
     </row>
     <row r="675" hidden="true">
       <c r="A675" t="s" s="2">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>274</v>
@@ -80635,7 +80629,7 @@
     </row>
     <row r="676" hidden="true">
       <c r="A676" t="s" s="2">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>275</v>
@@ -80751,7 +80745,7 @@
     </row>
     <row r="677" hidden="true">
       <c r="A677" t="s" s="2">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>276</v>
@@ -80863,7 +80857,7 @@
     </row>
     <row r="678" hidden="true">
       <c r="A678" t="s" s="2">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>279</v>
@@ -80977,7 +80971,7 @@
     </row>
     <row r="679" hidden="true">
       <c r="A679" t="s" s="2">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>283</v>
@@ -80994,7 +80988,7 @@
         <v>84</v>
       </c>
       <c r="H679" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I679" t="s" s="2">
         <v>75</v>
@@ -81003,16 +80997,16 @@
         <v>75</v>
       </c>
       <c r="K679" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L679" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M679" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N679" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O679" s="2"/>
       <c r="P679" t="s" s="2">
@@ -81091,7 +81085,7 @@
     </row>
     <row r="680" hidden="true">
       <c r="A680" t="s" s="2">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>287</v>
@@ -81203,7 +81197,7 @@
     </row>
     <row r="681" hidden="true">
       <c r="A681" t="s" s="2">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>291</v>
@@ -81315,7 +81309,7 @@
     </row>
     <row r="682" hidden="true">
       <c r="A682" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>292</v>
@@ -81429,7 +81423,7 @@
     </row>
     <row r="683" hidden="true">
       <c r="A683" t="s" s="2">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>293</v>
@@ -81545,7 +81539,7 @@
     </row>
     <row r="684" hidden="true">
       <c r="A684" t="s" s="2">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B684" t="s" s="2">
         <v>294</v>
@@ -81659,7 +81653,7 @@
     </row>
     <row r="685" hidden="true">
       <c r="A685" t="s" s="2">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B685" t="s" s="2">
         <v>300</v>
@@ -81773,7 +81767,7 @@
     </row>
     <row r="686" hidden="true">
       <c r="A686" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>305</v>
@@ -81885,7 +81879,7 @@
     </row>
     <row r="687" hidden="true">
       <c r="A687" t="s" s="2">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>309</v>
@@ -81997,7 +81991,7 @@
     </row>
     <row r="688" hidden="true">
       <c r="A688" t="s" s="2">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>310</v>
@@ -82111,7 +82105,7 @@
     </row>
     <row r="689" hidden="true">
       <c r="A689" t="s" s="2">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>311</v>
@@ -82227,7 +82221,7 @@
     </row>
     <row r="690" hidden="true">
       <c r="A690" t="s" s="2">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>312</v>
@@ -82339,7 +82333,7 @@
     </row>
     <row r="691" hidden="true">
       <c r="A691" t="s" s="2">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>317</v>
@@ -82453,7 +82447,7 @@
     </row>
     <row r="692" hidden="true">
       <c r="A692" t="s" s="2">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>321</v>
@@ -82565,7 +82559,7 @@
     </row>
     <row r="693" hidden="true">
       <c r="A693" t="s" s="2">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>324</v>
@@ -82677,7 +82671,7 @@
     </row>
     <row r="694" hidden="true">
       <c r="A694" t="s" s="2">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>326</v>
@@ -82789,7 +82783,7 @@
     </row>
     <row r="695" hidden="true">
       <c r="A695" t="s" s="2">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>329</v>
@@ -82901,7 +82895,7 @@
     </row>
     <row r="696" hidden="true">
       <c r="A696" t="s" s="2">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>332</v>
@@ -83013,7 +83007,7 @@
     </row>
     <row r="697" hidden="true">
       <c r="A697" t="s" s="2">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>336</v>
@@ -83125,7 +83119,7 @@
     </row>
     <row r="698" hidden="true">
       <c r="A698" t="s" s="2">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B698" t="s" s="2">
         <v>337</v>
@@ -83239,7 +83233,7 @@
     </row>
     <row r="699" hidden="true">
       <c r="A699" t="s" s="2">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B699" t="s" s="2">
         <v>338</v>
@@ -83355,7 +83349,7 @@
     </row>
     <row r="700" hidden="true">
       <c r="A700" t="s" s="2">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B700" t="s" s="2">
         <v>339</v>
@@ -83467,7 +83461,7 @@
     </row>
     <row r="701" hidden="true">
       <c r="A701" t="s" s="2">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B701" t="s" s="2">
         <v>342</v>
@@ -83579,7 +83573,7 @@
     </row>
     <row r="702" hidden="true">
       <c r="A702" t="s" s="2">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B702" t="s" s="2">
         <v>345</v>
@@ -83693,7 +83687,7 @@
     </row>
     <row r="703" hidden="true">
       <c r="A703" t="s" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B703" t="s" s="2">
         <v>349</v>
@@ -83807,7 +83801,7 @@
     </row>
     <row r="704" hidden="true">
       <c r="A704" t="s" s="2">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B704" t="s" s="2">
         <v>353</v>
@@ -83921,13 +83915,13 @@
     </row>
     <row r="705" hidden="true">
       <c r="A705" t="s" s="2">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B705" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D705" t="s" s="2">
         <v>75</v>
@@ -83952,10 +83946,10 @@
         <v>248</v>
       </c>
       <c r="L705" t="s" s="2">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M705" t="s" s="2">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="N705" s="2"/>
       <c r="O705" s="2"/>
@@ -84035,7 +84029,7 @@
     </row>
     <row r="706" hidden="true">
       <c r="A706" t="s" s="2">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B706" t="s" s="2">
         <v>273</v>
@@ -84147,7 +84141,7 @@
     </row>
     <row r="707" hidden="true">
       <c r="A707" t="s" s="2">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B707" t="s" s="2">
         <v>274</v>
@@ -84261,7 +84255,7 @@
     </row>
     <row r="708" hidden="true">
       <c r="A708" t="s" s="2">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B708" t="s" s="2">
         <v>275</v>
@@ -84377,7 +84371,7 @@
     </row>
     <row r="709" hidden="true">
       <c r="A709" t="s" s="2">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B709" t="s" s="2">
         <v>276</v>
@@ -84489,7 +84483,7 @@
     </row>
     <row r="710" hidden="true">
       <c r="A710" t="s" s="2">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B710" t="s" s="2">
         <v>279</v>
@@ -84603,7 +84597,7 @@
     </row>
     <row r="711" hidden="true">
       <c r="A711" t="s" s="2">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>283</v>
@@ -84620,7 +84614,7 @@
         <v>84</v>
       </c>
       <c r="H711" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I711" t="s" s="2">
         <v>75</v>
@@ -84629,16 +84623,16 @@
         <v>75</v>
       </c>
       <c r="K711" t="s" s="2">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="L711" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" t="s" s="2">
@@ -84717,7 +84711,7 @@
     </row>
     <row r="712" hidden="true">
       <c r="A712" t="s" s="2">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>287</v>
@@ -84829,7 +84823,7 @@
     </row>
     <row r="713" hidden="true">
       <c r="A713" t="s" s="2">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>291</v>
@@ -84941,7 +84935,7 @@
     </row>
     <row r="714" hidden="true">
       <c r="A714" t="s" s="2">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>292</v>
@@ -85055,7 +85049,7 @@
     </row>
     <row r="715" hidden="true">
       <c r="A715" t="s" s="2">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>293</v>
@@ -85171,7 +85165,7 @@
     </row>
     <row r="716" hidden="true">
       <c r="A716" t="s" s="2">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>294</v>
@@ -85285,7 +85279,7 @@
     </row>
     <row r="717" hidden="true">
       <c r="A717" t="s" s="2">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>300</v>
@@ -85399,7 +85393,7 @@
     </row>
     <row r="718" hidden="true">
       <c r="A718" t="s" s="2">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>305</v>
@@ -85511,7 +85505,7 @@
     </row>
     <row r="719" hidden="true">
       <c r="A719" t="s" s="2">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>309</v>
@@ -85623,7 +85617,7 @@
     </row>
     <row r="720" hidden="true">
       <c r="A720" t="s" s="2">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>310</v>
@@ -85737,7 +85731,7 @@
     </row>
     <row r="721" hidden="true">
       <c r="A721" t="s" s="2">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>311</v>
@@ -85853,7 +85847,7 @@
     </row>
     <row r="722" hidden="true">
       <c r="A722" t="s" s="2">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>312</v>
@@ -85965,7 +85959,7 @@
     </row>
     <row r="723" hidden="true">
       <c r="A723" t="s" s="2">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>317</v>
@@ -86079,7 +86073,7 @@
     </row>
     <row r="724" hidden="true">
       <c r="A724" t="s" s="2">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>321</v>
@@ -86191,7 +86185,7 @@
     </row>
     <row r="725" hidden="true">
       <c r="A725" t="s" s="2">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>324</v>
@@ -86303,7 +86297,7 @@
     </row>
     <row r="726" hidden="true">
       <c r="A726" t="s" s="2">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B726" t="s" s="2">
         <v>326</v>
@@ -86415,7 +86409,7 @@
     </row>
     <row r="727" hidden="true">
       <c r="A727" t="s" s="2">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B727" t="s" s="2">
         <v>329</v>
@@ -86527,7 +86521,7 @@
     </row>
     <row r="728" hidden="true">
       <c r="A728" t="s" s="2">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>332</v>
@@ -86639,7 +86633,7 @@
     </row>
     <row r="729" hidden="true">
       <c r="A729" t="s" s="2">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B729" t="s" s="2">
         <v>336</v>
@@ -86751,7 +86745,7 @@
     </row>
     <row r="730" hidden="true">
       <c r="A730" t="s" s="2">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B730" t="s" s="2">
         <v>337</v>
@@ -86865,7 +86859,7 @@
     </row>
     <row r="731" hidden="true">
       <c r="A731" t="s" s="2">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B731" t="s" s="2">
         <v>338</v>
@@ -86981,7 +86975,7 @@
     </row>
     <row r="732" hidden="true">
       <c r="A732" t="s" s="2">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B732" t="s" s="2">
         <v>339</v>
@@ -87093,7 +87087,7 @@
     </row>
     <row r="733" hidden="true">
       <c r="A733" t="s" s="2">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B733" t="s" s="2">
         <v>342</v>
@@ -87205,7 +87199,7 @@
     </row>
     <row r="734" hidden="true">
       <c r="A734" t="s" s="2">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B734" t="s" s="2">
         <v>345</v>
@@ -87319,7 +87313,7 @@
     </row>
     <row r="735" hidden="true">
       <c r="A735" t="s" s="2">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B735" t="s" s="2">
         <v>349</v>
@@ -87433,7 +87427,7 @@
     </row>
     <row r="736" hidden="true">
       <c r="A736" t="s" s="2">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B736" t="s" s="2">
         <v>353</v>
@@ -87547,13 +87541,13 @@
     </row>
     <row r="737" hidden="true">
       <c r="A737" t="s" s="2">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B737" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C737" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D737" t="s" s="2">
         <v>75</v>
@@ -87578,10 +87572,10 @@
         <v>248</v>
       </c>
       <c r="L737" t="s" s="2">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M737" t="s" s="2">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="N737" s="2"/>
       <c r="O737" s="2"/>
@@ -87661,7 +87655,7 @@
     </row>
     <row r="738" hidden="true">
       <c r="A738" t="s" s="2">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B738" t="s" s="2">
         <v>273</v>
@@ -87773,7 +87767,7 @@
     </row>
     <row r="739" hidden="true">
       <c r="A739" t="s" s="2">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B739" t="s" s="2">
         <v>274</v>
@@ -87887,7 +87881,7 @@
     </row>
     <row r="740" hidden="true">
       <c r="A740" t="s" s="2">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B740" t="s" s="2">
         <v>275</v>
@@ -88003,7 +87997,7 @@
     </row>
     <row r="741" hidden="true">
       <c r="A741" t="s" s="2">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B741" t="s" s="2">
         <v>276</v>
@@ -88115,7 +88109,7 @@
     </row>
     <row r="742" hidden="true">
       <c r="A742" t="s" s="2">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B742" t="s" s="2">
         <v>279</v>
@@ -88229,7 +88223,7 @@
     </row>
     <row r="743" hidden="true">
       <c r="A743" t="s" s="2">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B743" t="s" s="2">
         <v>283</v>
@@ -88246,7 +88240,7 @@
         <v>84</v>
       </c>
       <c r="H743" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I743" t="s" s="2">
         <v>75</v>
@@ -88255,16 +88249,16 @@
         <v>75</v>
       </c>
       <c r="K743" t="s" s="2">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="L743" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M743" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N743" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O743" s="2"/>
       <c r="P743" t="s" s="2">
@@ -88343,7 +88337,7 @@
     </row>
     <row r="744" hidden="true">
       <c r="A744" t="s" s="2">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B744" t="s" s="2">
         <v>287</v>
@@ -88455,7 +88449,7 @@
     </row>
     <row r="745" hidden="true">
       <c r="A745" t="s" s="2">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B745" t="s" s="2">
         <v>291</v>
@@ -88567,7 +88561,7 @@
     </row>
     <row r="746" hidden="true">
       <c r="A746" t="s" s="2">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B746" t="s" s="2">
         <v>292</v>
@@ -88681,7 +88675,7 @@
     </row>
     <row r="747" hidden="true">
       <c r="A747" t="s" s="2">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B747" t="s" s="2">
         <v>293</v>
@@ -88797,7 +88791,7 @@
     </row>
     <row r="748" hidden="true">
       <c r="A748" t="s" s="2">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B748" t="s" s="2">
         <v>294</v>
@@ -88911,7 +88905,7 @@
     </row>
     <row r="749" hidden="true">
       <c r="A749" t="s" s="2">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B749" t="s" s="2">
         <v>300</v>
@@ -89025,7 +89019,7 @@
     </row>
     <row r="750" hidden="true">
       <c r="A750" t="s" s="2">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B750" t="s" s="2">
         <v>305</v>
@@ -89137,7 +89131,7 @@
     </row>
     <row r="751" hidden="true">
       <c r="A751" t="s" s="2">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B751" t="s" s="2">
         <v>309</v>
@@ -89249,7 +89243,7 @@
     </row>
     <row r="752" hidden="true">
       <c r="A752" t="s" s="2">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B752" t="s" s="2">
         <v>310</v>
@@ -89363,7 +89357,7 @@
     </row>
     <row r="753" hidden="true">
       <c r="A753" t="s" s="2">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B753" t="s" s="2">
         <v>311</v>
@@ -89479,7 +89473,7 @@
     </row>
     <row r="754" hidden="true">
       <c r="A754" t="s" s="2">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B754" t="s" s="2">
         <v>312</v>
@@ -89591,7 +89585,7 @@
     </row>
     <row r="755" hidden="true">
       <c r="A755" t="s" s="2">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B755" t="s" s="2">
         <v>317</v>
@@ -89705,7 +89699,7 @@
     </row>
     <row r="756" hidden="true">
       <c r="A756" t="s" s="2">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B756" t="s" s="2">
         <v>321</v>
@@ -89817,7 +89811,7 @@
     </row>
     <row r="757" hidden="true">
       <c r="A757" t="s" s="2">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B757" t="s" s="2">
         <v>324</v>
@@ -89929,7 +89923,7 @@
     </row>
     <row r="758" hidden="true">
       <c r="A758" t="s" s="2">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B758" t="s" s="2">
         <v>326</v>
@@ -90041,7 +90035,7 @@
     </row>
     <row r="759" hidden="true">
       <c r="A759" t="s" s="2">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B759" t="s" s="2">
         <v>329</v>
@@ -90153,7 +90147,7 @@
     </row>
     <row r="760" hidden="true">
       <c r="A760" t="s" s="2">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B760" t="s" s="2">
         <v>332</v>
@@ -90265,7 +90259,7 @@
     </row>
     <row r="761" hidden="true">
       <c r="A761" t="s" s="2">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B761" t="s" s="2">
         <v>336</v>
@@ -90377,7 +90371,7 @@
     </row>
     <row r="762" hidden="true">
       <c r="A762" t="s" s="2">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B762" t="s" s="2">
         <v>337</v>
@@ -90491,7 +90485,7 @@
     </row>
     <row r="763" hidden="true">
       <c r="A763" t="s" s="2">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B763" t="s" s="2">
         <v>338</v>
@@ -90607,7 +90601,7 @@
     </row>
     <row r="764" hidden="true">
       <c r="A764" t="s" s="2">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B764" t="s" s="2">
         <v>339</v>
@@ -90719,7 +90713,7 @@
     </row>
     <row r="765" hidden="true">
       <c r="A765" t="s" s="2">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B765" t="s" s="2">
         <v>342</v>
@@ -90831,7 +90825,7 @@
     </row>
     <row r="766" hidden="true">
       <c r="A766" t="s" s="2">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B766" t="s" s="2">
         <v>345</v>
@@ -90945,7 +90939,7 @@
     </row>
     <row r="767" hidden="true">
       <c r="A767" t="s" s="2">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B767" t="s" s="2">
         <v>349</v>
@@ -91059,7 +91053,7 @@
     </row>
     <row r="768" hidden="true">
       <c r="A768" t="s" s="2">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B768" t="s" s="2">
         <v>353</v>
@@ -91173,13 +91167,13 @@
     </row>
     <row r="769" hidden="true">
       <c r="A769" t="s" s="2">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B769" t="s" s="2">
         <v>266</v>
       </c>
       <c r="C769" t="s" s="2">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D769" t="s" s="2">
         <v>75</v>
@@ -91204,10 +91198,10 @@
         <v>248</v>
       </c>
       <c r="L769" t="s" s="2">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="M769" t="s" s="2">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="N769" s="2"/>
       <c r="O769" s="2"/>
@@ -91287,7 +91281,7 @@
     </row>
     <row r="770" hidden="true">
       <c r="A770" t="s" s="2">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B770" t="s" s="2">
         <v>273</v>
@@ -91399,7 +91393,7 @@
     </row>
     <row r="771" hidden="true">
       <c r="A771" t="s" s="2">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B771" t="s" s="2">
         <v>274</v>
@@ -91513,7 +91507,7 @@
     </row>
     <row r="772" hidden="true">
       <c r="A772" t="s" s="2">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B772" t="s" s="2">
         <v>275</v>
@@ -91629,7 +91623,7 @@
     </row>
     <row r="773" hidden="true">
       <c r="A773" t="s" s="2">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B773" t="s" s="2">
         <v>276</v>
@@ -91741,7 +91735,7 @@
     </row>
     <row r="774" hidden="true">
       <c r="A774" t="s" s="2">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B774" t="s" s="2">
         <v>279</v>
@@ -91855,7 +91849,7 @@
     </row>
     <row r="775" hidden="true">
       <c r="A775" t="s" s="2">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B775" t="s" s="2">
         <v>283</v>
@@ -91872,7 +91866,7 @@
         <v>84</v>
       </c>
       <c r="H775" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I775" t="s" s="2">
         <v>75</v>
@@ -91881,16 +91875,16 @@
         <v>75</v>
       </c>
       <c r="K775" t="s" s="2">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L775" t="s" s="2">
         <v>835</v>
       </c>
       <c r="M775" t="s" s="2">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="N775" t="s" s="2">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="O775" s="2"/>
       <c r="P775" t="s" s="2">
@@ -91969,7 +91963,7 @@
     </row>
     <row r="776" hidden="true">
       <c r="A776" t="s" s="2">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B776" t="s" s="2">
         <v>287</v>
@@ -92081,7 +92075,7 @@
     </row>
     <row r="777" hidden="true">
       <c r="A777" t="s" s="2">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B777" t="s" s="2">
         <v>291</v>
@@ -92193,7 +92187,7 @@
     </row>
     <row r="778" hidden="true">
       <c r="A778" t="s" s="2">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B778" t="s" s="2">
         <v>292</v>
@@ -92307,7 +92301,7 @@
     </row>
     <row r="779" hidden="true">
       <c r="A779" t="s" s="2">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B779" t="s" s="2">
         <v>293</v>
@@ -92423,7 +92417,7 @@
     </row>
     <row r="780" hidden="true">
       <c r="A780" t="s" s="2">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B780" t="s" s="2">
         <v>294</v>
@@ -92537,7 +92531,7 @@
     </row>
     <row r="781" hidden="true">
       <c r="A781" t="s" s="2">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B781" t="s" s="2">
         <v>300</v>
@@ -92651,7 +92645,7 @@
     </row>
     <row r="782" hidden="true">
       <c r="A782" t="s" s="2">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B782" t="s" s="2">
         <v>305</v>
@@ -92763,7 +92757,7 @@
     </row>
     <row r="783" hidden="true">
       <c r="A783" t="s" s="2">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B783" t="s" s="2">
         <v>309</v>
@@ -92875,7 +92869,7 @@
     </row>
     <row r="784" hidden="true">
       <c r="A784" t="s" s="2">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B784" t="s" s="2">
         <v>310</v>
@@ -92989,7 +92983,7 @@
     </row>
     <row r="785" hidden="true">
       <c r="A785" t="s" s="2">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B785" t="s" s="2">
         <v>311</v>
@@ -93105,7 +93099,7 @@
     </row>
     <row r="786" hidden="true">
       <c r="A786" t="s" s="2">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B786" t="s" s="2">
         <v>312</v>
@@ -93217,7 +93211,7 @@
     </row>
     <row r="787" hidden="true">
       <c r="A787" t="s" s="2">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B787" t="s" s="2">
         <v>317</v>
@@ -93331,7 +93325,7 @@
     </row>
     <row r="788" hidden="true">
       <c r="A788" t="s" s="2">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B788" t="s" s="2">
         <v>321</v>
@@ -93443,7 +93437,7 @@
     </row>
     <row r="789" hidden="true">
       <c r="A789" t="s" s="2">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B789" t="s" s="2">
         <v>324</v>
@@ -93555,7 +93549,7 @@
     </row>
     <row r="790" hidden="true">
       <c r="A790" t="s" s="2">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B790" t="s" s="2">
         <v>326</v>
@@ -93667,7 +93661,7 @@
     </row>
     <row r="791" hidden="true">
       <c r="A791" t="s" s="2">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B791" t="s" s="2">
         <v>329</v>
@@ -93779,7 +93773,7 @@
     </row>
     <row r="792" hidden="true">
       <c r="A792" t="s" s="2">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B792" t="s" s="2">
         <v>332</v>
@@ -93891,7 +93885,7 @@
     </row>
     <row r="793" hidden="true">
       <c r="A793" t="s" s="2">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B793" t="s" s="2">
         <v>336</v>
@@ -94003,7 +93997,7 @@
     </row>
     <row r="794" hidden="true">
       <c r="A794" t="s" s="2">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B794" t="s" s="2">
         <v>337</v>
@@ -94117,7 +94111,7 @@
     </row>
     <row r="795" hidden="true">
       <c r="A795" t="s" s="2">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B795" t="s" s="2">
         <v>338</v>
@@ -94233,7 +94227,7 @@
     </row>
     <row r="796" hidden="true">
       <c r="A796" t="s" s="2">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B796" t="s" s="2">
         <v>339</v>
@@ -94345,7 +94339,7 @@
     </row>
     <row r="797" hidden="true">
       <c r="A797" t="s" s="2">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B797" t="s" s="2">
         <v>342</v>
@@ -94457,7 +94451,7 @@
     </row>
     <row r="798" hidden="true">
       <c r="A798" t="s" s="2">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B798" t="s" s="2">
         <v>345</v>
@@ -94571,7 +94565,7 @@
     </row>
     <row r="799" hidden="true">
       <c r="A799" t="s" s="2">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B799" t="s" s="2">
         <v>349</v>
@@ -94685,7 +94679,7 @@
     </row>
     <row r="800" hidden="true">
       <c r="A800" t="s" s="2">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B800" t="s" s="2">
         <v>353</v>
@@ -94799,10 +94793,10 @@
     </row>
     <row r="801" hidden="true">
       <c r="A801" t="s" s="2">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B801" t="s" s="2">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" t="s" s="2">
@@ -94825,19 +94819,19 @@
         <v>85</v>
       </c>
       <c r="K801" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="L801" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="M801" t="s" s="2">
         <v>1224</v>
       </c>
-      <c r="L801" t="s" s="2">
+      <c r="N801" t="s" s="2">
         <v>1225</v>
       </c>
-      <c r="M801" t="s" s="2">
+      <c r="O801" t="s" s="2">
         <v>1226</v>
-      </c>
-      <c r="N801" t="s" s="2">
-        <v>1227</v>
-      </c>
-      <c r="O801" t="s" s="2">
-        <v>1228</v>
       </c>
       <c r="P801" t="s" s="2">
         <v>75</v>
@@ -94886,7 +94880,7 @@
         <v>75</v>
       </c>
       <c r="AF801" t="s" s="2">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AG801" t="s" s="2">
         <v>76</v>
